--- a/files/vim_cheat_sheet_for_programmers_print_DV.xlsx
+++ b/files/vim_cheat_sheet_for_programmers_print_DV.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tudors1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CArnold-c\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cheat Sheet v2" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,11 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="CustomView2" guid="{EBB028A3-2DAE-FC48-BB5E-F318F26DBDB0}" includePrintSettings="0" includeHiddenRowCol="0" xWindow="96" yWindow="331" windowWidth="1698" windowHeight="1019" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="CustomPreview" guid="{448EE374-336A-4844-8ACB-E6648CBAFC3F}" xWindow="96" yWindow="331" windowWidth="1698" windowHeight="1019" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="test2" guid="{31BB0FB4-0331-534E-A18A-54066D44CBAB}" includeHiddenRowCol="0" xWindow="41" yWindow="123" windowWidth="1698" windowHeight="1019" tabRatio="500" activeSheetId="2"/>
-    <customWorkbookView name="CustomPreview" guid="{448EE374-336A-4844-8ACB-E6648CBAFC3F}" xWindow="96" yWindow="331" windowWidth="1698" windowHeight="1019" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="CustomView2" guid="{EBB028A3-2DAE-FC48-BB5E-F318F26DBDB0}" includePrintSettings="0" includeHiddenRowCol="0" xWindow="96" yWindow="331" windowWidth="1698" windowHeight="1019" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="568">
   <si>
     <t>!</t>
   </si>
@@ -2673,8 +2670,20 @@
     <t>13</t>
   </si>
   <si>
-    <t>Revision 2.1
-Aug. 9, 2016</t>
+    <t xml:space="preserve"> Ctrl _ </t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>cur line</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Revision 2.1.1
+Aug. 8, 2017</t>
   </si>
   <si>
     <r>
@@ -2696,7 +2705,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> © 2016</t>
+      <t xml:space="preserve"> © 2017</t>
     </r>
     <r>
       <rPr>
@@ -2715,7 +2724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="103">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3183,12 +3192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3268,6 +3271,53 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="Courier"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF7F0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3751,7 +3801,7 @@
   </borders>
   <cellStyleXfs count="2034">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="87" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5795,12 +5845,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="545">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5836,7 +5886,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6192,28 +6242,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="7" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="7" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="6" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="6" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="9" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="632" applyBorder="1" applyAlignment="1">
@@ -6225,7 +6275,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="632" applyBorder="1" applyAlignment="1">
@@ -6237,10 +6287,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6261,10 +6311,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="12" borderId="30" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="12" borderId="13" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="12" borderId="30" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6368,7 +6415,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6431,7 +6478,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6449,7 +6496,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6531,6 +6578,813 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="10" borderId="16" xfId="862" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="10" borderId="27" xfId="862" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1017" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="31" xfId="1017" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="5" xfId="1017" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="19" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="31" xfId="1017" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="10" borderId="31" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="1017" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="862" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="1017" quotePrefix="1" applyBorder="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="6" borderId="12" xfId="43" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="12" xfId="1017" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="10" borderId="18" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="10" borderId="32" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="20" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="12" borderId="11" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="12" borderId="13" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="10" borderId="12" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="12" borderId="27" xfId="1017" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="4" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="18" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="4" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="5" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="20" xfId="632" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="19" xfId="632" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="20" xfId="632" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="20" xfId="632" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="22" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="23" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="15" borderId="19" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="15" borderId="20" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="18" borderId="18" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="18" borderId="5" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="17" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="18" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="545" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="20" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="31" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="23" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="23" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="20" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="31" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="11" xfId="632" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="921" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="921" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="921" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="31" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="30" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="15" borderId="22" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="15" borderId="17" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="15" borderId="30" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="15" borderId="4" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="13" xfId="862" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="862" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="4" borderId="12" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="25" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="106" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -6558,9 +7412,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6579,818 +7430,32 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="17" borderId="31" xfId="577" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="13" xfId="862" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="862" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="17" borderId="13" xfId="577" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="4" borderId="12" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="639" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="106" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="18" borderId="18" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="18" borderId="5" xfId="54" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="31" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="63" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="20" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="31" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="23" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="22" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="23" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="12" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="31" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="11" xfId="632" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="921" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="921" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="921" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="22" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="23" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="30" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" xfId="378" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="15" borderId="19" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="15" borderId="20" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="20" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="11" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="19" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="20" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="31" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="16" xfId="862" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="27" xfId="862" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="15" borderId="17" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="17" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="15" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="25" xfId="43" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="15" borderId="22" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="18" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="15" borderId="30" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="545" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="20" xfId="632" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="18" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="4" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="5" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1017" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="31" xfId="1017" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="5" xfId="1017" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="30" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="19" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="31" xfId="1017" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="31" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="1017" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="862" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="1017" quotePrefix="1" applyBorder="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="6" borderId="12" xfId="43" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="12" xfId="1017" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="18" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="32" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="921" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="4" xfId="577" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="20" xfId="862" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="12" borderId="11" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="12" borderId="13" xfId="921" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="19" xfId="632" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="20" xfId="632" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="15" borderId="4" xfId="545" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="20" xfId="632" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="12" xfId="862" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="12" borderId="27" xfId="1017" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2034">
@@ -9443,6 +9508,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -11284,123 +11352,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="CR2" sqref="CR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="10"/>
-    <col min="2" max="2" width="3.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" style="10"/>
-    <col min="4" max="4" width="2.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" style="10"/>
-    <col min="6" max="6" width="3.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="10"/>
+    <col min="2" max="2" width="3.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="10"/>
+    <col min="4" max="4" width="2.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="3.125" style="10"/>
+    <col min="6" max="6" width="3.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="0.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="10" customWidth="1"/>
     <col min="9" max="9" width="0.5" style="10" customWidth="1"/>
-    <col min="10" max="11" width="3.1640625" style="10"/>
+    <col min="10" max="11" width="3.125" style="10"/>
     <col min="12" max="12" width="0.5" style="10" customWidth="1"/>
-    <col min="13" max="14" width="1.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" style="10"/>
+    <col min="13" max="14" width="1.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="3.125" style="10"/>
     <col min="16" max="16" width="0.5" style="10" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="10" customWidth="1"/>
     <col min="18" max="18" width="0.5" style="10" customWidth="1"/>
-    <col min="19" max="20" width="3.1640625" style="10"/>
-    <col min="21" max="22" width="1.33203125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="3.1640625" style="10"/>
+    <col min="19" max="20" width="3.125" style="10"/>
+    <col min="21" max="22" width="1.375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="3.125" style="10"/>
     <col min="24" max="24" width="0.5" style="10" customWidth="1"/>
-    <col min="25" max="25" width="4.1640625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="10" customWidth="1"/>
     <col min="26" max="26" width="0.5" style="10" customWidth="1"/>
-    <col min="27" max="28" width="3.1640625" style="10"/>
-    <col min="29" max="30" width="1.33203125" style="10" customWidth="1"/>
-    <col min="31" max="31" width="3.1640625" style="10"/>
+    <col min="27" max="28" width="3.125" style="10"/>
+    <col min="29" max="30" width="1.375" style="10" customWidth="1"/>
+    <col min="31" max="31" width="3.125" style="10"/>
     <col min="32" max="32" width="0.5" style="10" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="10" customWidth="1"/>
-    <col min="34" max="35" width="3.1640625" style="10"/>
-    <col min="36" max="37" width="1.33203125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="3.1640625" style="10"/>
+    <col min="33" max="33" width="4.125" style="10" customWidth="1"/>
+    <col min="34" max="35" width="3.125" style="10"/>
+    <col min="36" max="37" width="1.375" style="10" customWidth="1"/>
+    <col min="38" max="38" width="3.125" style="10"/>
     <col min="39" max="39" width="0.5" style="10" customWidth="1"/>
-    <col min="40" max="40" width="4.1640625" style="10" customWidth="1"/>
-    <col min="41" max="42" width="3.1640625" style="10"/>
-    <col min="43" max="44" width="1.33203125" style="10" customWidth="1"/>
-    <col min="45" max="45" width="3.1640625" style="10"/>
+    <col min="40" max="40" width="4.125" style="10" customWidth="1"/>
+    <col min="41" max="42" width="3.125" style="10"/>
+    <col min="43" max="44" width="1.375" style="10" customWidth="1"/>
+    <col min="45" max="45" width="3.125" style="10"/>
     <col min="46" max="46" width="0.5" style="10" customWidth="1"/>
-    <col min="47" max="47" width="4.1640625" style="10" customWidth="1"/>
-    <col min="48" max="49" width="3.1640625" style="10"/>
-    <col min="50" max="51" width="1.33203125" style="10" customWidth="1"/>
-    <col min="52" max="52" width="3.1640625" style="10"/>
+    <col min="47" max="47" width="4.125" style="10" customWidth="1"/>
+    <col min="48" max="49" width="3.125" style="10"/>
+    <col min="50" max="51" width="1.375" style="10" customWidth="1"/>
+    <col min="52" max="52" width="3.125" style="10"/>
     <col min="53" max="53" width="0.5" style="10" customWidth="1"/>
-    <col min="54" max="54" width="4.1640625" style="10" customWidth="1"/>
-    <col min="55" max="56" width="3.1640625" style="10"/>
-    <col min="57" max="58" width="1.33203125" style="10" customWidth="1"/>
-    <col min="59" max="59" width="3.1640625" style="10"/>
+    <col min="54" max="54" width="4.125" style="10" customWidth="1"/>
+    <col min="55" max="56" width="3.125" style="10"/>
+    <col min="57" max="58" width="1.375" style="10" customWidth="1"/>
+    <col min="59" max="59" width="3.125" style="10"/>
     <col min="60" max="60" width="0.5" style="10" customWidth="1"/>
-    <col min="61" max="61" width="4.1640625" style="10" customWidth="1"/>
-    <col min="62" max="63" width="3.1640625" style="10"/>
-    <col min="64" max="65" width="1.33203125" style="10" customWidth="1"/>
-    <col min="66" max="66" width="3.1640625" style="10" customWidth="1"/>
+    <col min="61" max="61" width="4.125" style="10" customWidth="1"/>
+    <col min="62" max="63" width="3.125" style="10"/>
+    <col min="64" max="65" width="1.375" style="10" customWidth="1"/>
+    <col min="66" max="66" width="3.125" style="10" customWidth="1"/>
     <col min="67" max="67" width="0.5" style="10" customWidth="1"/>
-    <col min="68" max="68" width="4.1640625" style="10" customWidth="1"/>
-    <col min="69" max="70" width="3.1640625" style="10"/>
-    <col min="71" max="72" width="1.33203125" style="10" customWidth="1"/>
-    <col min="73" max="73" width="3.1640625" style="10"/>
+    <col min="68" max="68" width="4.125" style="10" customWidth="1"/>
+    <col min="69" max="70" width="3.125" style="10"/>
+    <col min="71" max="72" width="1.375" style="10" customWidth="1"/>
+    <col min="73" max="73" width="3.125" style="10"/>
     <col min="74" max="74" width="0.5" style="10" customWidth="1"/>
-    <col min="75" max="75" width="4.1640625" style="10" customWidth="1"/>
-    <col min="76" max="77" width="3.1640625" style="10"/>
-    <col min="78" max="79" width="1.33203125" style="10" customWidth="1"/>
-    <col min="80" max="80" width="3.1640625" style="10"/>
+    <col min="75" max="75" width="4.125" style="10" customWidth="1"/>
+    <col min="76" max="77" width="3.125" style="10"/>
+    <col min="78" max="79" width="1.375" style="10" customWidth="1"/>
+    <col min="80" max="80" width="3.125" style="10"/>
     <col min="81" max="81" width="0.5" style="10" customWidth="1"/>
-    <col min="82" max="82" width="4.1640625" style="10" customWidth="1"/>
-    <col min="83" max="84" width="3.1640625" style="10"/>
-    <col min="85" max="86" width="1.33203125" style="10" customWidth="1"/>
-    <col min="87" max="87" width="3.1640625" style="10"/>
+    <col min="82" max="82" width="4.125" style="10" customWidth="1"/>
+    <col min="83" max="84" width="3.125" style="10"/>
+    <col min="85" max="86" width="1.375" style="10" customWidth="1"/>
+    <col min="87" max="87" width="3.125" style="10"/>
     <col min="88" max="88" width="0.5" style="10" customWidth="1"/>
-    <col min="89" max="89" width="4.1640625" style="10" customWidth="1"/>
-    <col min="90" max="91" width="3.1640625" style="10"/>
-    <col min="92" max="93" width="1.33203125" style="10" customWidth="1"/>
-    <col min="94" max="94" width="3.1640625" style="10"/>
+    <col min="89" max="89" width="4.125" style="10" customWidth="1"/>
+    <col min="90" max="91" width="3.125" style="10"/>
+    <col min="92" max="93" width="1.375" style="10" customWidth="1"/>
+    <col min="94" max="94" width="3.125" style="10"/>
     <col min="95" max="95" width="0.5" style="10" customWidth="1"/>
-    <col min="96" max="16384" width="3.1640625" style="10"/>
+    <col min="96" max="16384" width="3.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:94" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="433" t="s">
+    <row r="1" spans="1:94" ht="3" customHeight="1"/>
+    <row r="2" spans="1:94" ht="42.95" customHeight="1" thickBot="1">
+      <c r="A2" s="344" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="434"/>
-      <c r="C2" s="270" t="s">
+      <c r="B2" s="345"/>
+      <c r="C2" s="492" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="271"/>
-      <c r="H2" s="435" t="s">
-        <v>562</v>
-      </c>
-      <c r="I2" s="435"/>
-      <c r="J2" s="435"/>
-      <c r="K2" s="435"/>
-      <c r="L2" s="435"/>
-      <c r="M2" s="435"/>
-      <c r="N2" s="435"/>
-      <c r="O2" s="435"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
+      <c r="F2" s="493"/>
+      <c r="H2" s="543" t="s">
+        <v>566</v>
+      </c>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
       <c r="P2" s="47"/>
-      <c r="Q2" s="272" t="s">
+      <c r="Q2" s="494" t="s">
         <v>480</v>
       </c>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
+      <c r="R2" s="494"/>
+      <c r="S2" s="494"/>
+      <c r="T2" s="494"/>
+      <c r="U2" s="494"/>
+      <c r="V2" s="494"/>
+      <c r="W2" s="494"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -11452,31 +11520,31 @@
       <c r="BT2"/>
       <c r="BU2"/>
       <c r="BV2"/>
-      <c r="BW2" s="406" t="s">
-        <v>563</v>
-      </c>
-      <c r="BX2" s="407"/>
-      <c r="BY2" s="407"/>
-      <c r="BZ2" s="407"/>
-      <c r="CA2" s="407"/>
-      <c r="CB2" s="407"/>
-      <c r="CD2" s="404" t="s">
+      <c r="BW2" s="544" t="s">
+        <v>567</v>
+      </c>
+      <c r="BX2" s="390"/>
+      <c r="BY2" s="390"/>
+      <c r="BZ2" s="390"/>
+      <c r="CA2" s="390"/>
+      <c r="CB2" s="390"/>
+      <c r="CD2" s="388" t="s">
         <v>542</v>
       </c>
-      <c r="CE2" s="405"/>
-      <c r="CF2" s="405"/>
-      <c r="CG2" s="405"/>
-      <c r="CH2" s="405"/>
-      <c r="CI2" s="405"/>
-      <c r="CJ2" s="405"/>
-      <c r="CK2" s="405"/>
-      <c r="CL2" s="405"/>
-      <c r="CM2" s="405"/>
-      <c r="CN2" s="405"/>
-      <c r="CO2" s="405"/>
-      <c r="CP2" s="405"/>
+      <c r="CE2" s="389"/>
+      <c r="CF2" s="389"/>
+      <c r="CG2" s="389"/>
+      <c r="CH2" s="389"/>
+      <c r="CI2" s="389"/>
+      <c r="CJ2" s="389"/>
+      <c r="CK2" s="389"/>
+      <c r="CL2" s="389"/>
+      <c r="CM2" s="389"/>
+      <c r="CN2" s="389"/>
+      <c r="CO2" s="389"/>
+      <c r="CP2" s="389"/>
     </row>
-    <row r="3" spans="1:94" s="21" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:94" s="21" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>289</v>
       </c>
@@ -11497,16 +11565,16 @@
       <c r="CI3" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="CK3" s="329" t="s">
+      <c r="CK3" s="471" t="s">
         <v>218</v>
       </c>
-      <c r="CL3" s="329"/>
-      <c r="CM3" s="329"/>
-      <c r="CN3" s="329"/>
-      <c r="CO3" s="329"/>
-      <c r="CP3" s="329"/>
+      <c r="CL3" s="471"/>
+      <c r="CM3" s="471"/>
+      <c r="CN3" s="471"/>
+      <c r="CO3" s="471"/>
+      <c r="CP3" s="471"/>
     </row>
-    <row r="4" spans="1:94" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:94" ht="18.95" customHeight="1">
       <c r="F4" s="120" t="s">
         <v>454</v>
       </c>
@@ -11530,275 +11598,275 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:94" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" ht="21" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="385" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="276"/>
+      <c r="C5" s="386"/>
+      <c r="D5" s="386"/>
+      <c r="E5" s="386"/>
+      <c r="F5" s="387"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="385" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="275"/>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
-      <c r="N5" s="275"/>
-      <c r="O5" s="276"/>
+      <c r="K5" s="386"/>
+      <c r="L5" s="386"/>
+      <c r="M5" s="386"/>
+      <c r="N5" s="386"/>
+      <c r="O5" s="387"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="274" t="s">
+      <c r="S5" s="385" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="275"/>
-      <c r="U5" s="275"/>
-      <c r="V5" s="275"/>
-      <c r="W5" s="276"/>
-      <c r="Y5" s="196"/>
+      <c r="T5" s="386"/>
+      <c r="U5" s="386"/>
+      <c r="V5" s="386"/>
+      <c r="W5" s="387"/>
+      <c r="Y5" s="195"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="274" t="s">
+      <c r="AA5" s="385" t="s">
         <v>192</v>
       </c>
-      <c r="AB5" s="275"/>
-      <c r="AC5" s="275"/>
-      <c r="AD5" s="275"/>
-      <c r="AE5" s="276"/>
+      <c r="AB5" s="386"/>
+      <c r="AC5" s="386"/>
+      <c r="AD5" s="386"/>
+      <c r="AE5" s="387"/>
       <c r="AG5" s="14"/>
-      <c r="AH5" s="274" t="s">
+      <c r="AH5" s="385" t="s">
         <v>191</v>
       </c>
-      <c r="AI5" s="275"/>
-      <c r="AJ5" s="275"/>
-      <c r="AK5" s="275"/>
-      <c r="AL5" s="276"/>
+      <c r="AI5" s="386"/>
+      <c r="AJ5" s="386"/>
+      <c r="AK5" s="386"/>
+      <c r="AL5" s="387"/>
       <c r="AN5" s="14"/>
-      <c r="AO5" s="274" t="s">
+      <c r="AO5" s="385" t="s">
         <v>190</v>
       </c>
-      <c r="AP5" s="275"/>
-      <c r="AQ5" s="275"/>
-      <c r="AR5" s="275"/>
-      <c r="AS5" s="276"/>
+      <c r="AP5" s="386"/>
+      <c r="AQ5" s="386"/>
+      <c r="AR5" s="386"/>
+      <c r="AS5" s="387"/>
       <c r="AU5" s="14"/>
-      <c r="AV5" s="274" t="s">
+      <c r="AV5" s="385" t="s">
         <v>189</v>
       </c>
-      <c r="AW5" s="275"/>
-      <c r="AX5" s="275"/>
-      <c r="AY5" s="275"/>
-      <c r="AZ5" s="276"/>
+      <c r="AW5" s="386"/>
+      <c r="AX5" s="386"/>
+      <c r="AY5" s="386"/>
+      <c r="AZ5" s="387"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="274" t="s">
+      <c r="BC5" s="385" t="s">
         <v>188</v>
       </c>
-      <c r="BD5" s="275"/>
-      <c r="BE5" s="275"/>
-      <c r="BF5" s="275"/>
-      <c r="BG5" s="276"/>
+      <c r="BD5" s="386"/>
+      <c r="BE5" s="386"/>
+      <c r="BF5" s="386"/>
+      <c r="BG5" s="387"/>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="274" t="s">
+      <c r="BJ5" s="385" t="s">
         <v>187</v>
       </c>
-      <c r="BK5" s="275"/>
-      <c r="BL5" s="275"/>
-      <c r="BM5" s="275"/>
-      <c r="BN5" s="276"/>
+      <c r="BK5" s="386"/>
+      <c r="BL5" s="386"/>
+      <c r="BM5" s="386"/>
+      <c r="BN5" s="387"/>
       <c r="BP5" s="14"/>
-      <c r="BQ5" s="274" t="s">
+      <c r="BQ5" s="385" t="s">
         <v>186</v>
       </c>
-      <c r="BR5" s="275"/>
-      <c r="BS5" s="275"/>
-      <c r="BT5" s="275"/>
-      <c r="BU5" s="276"/>
+      <c r="BR5" s="386"/>
+      <c r="BS5" s="386"/>
+      <c r="BT5" s="386"/>
+      <c r="BU5" s="387"/>
       <c r="BW5" s="14"/>
-      <c r="BX5" s="274" t="s">
+      <c r="BX5" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="BY5" s="275"/>
-      <c r="BZ5" s="275"/>
-      <c r="CA5" s="275"/>
-      <c r="CB5" s="276"/>
+      <c r="BY5" s="386"/>
+      <c r="BZ5" s="386"/>
+      <c r="CA5" s="386"/>
+      <c r="CB5" s="387"/>
       <c r="CD5" s="89"/>
-      <c r="CE5" s="365" t="s">
+      <c r="CE5" s="418" t="s">
         <v>169</v>
       </c>
-      <c r="CF5" s="340"/>
-      <c r="CG5" s="340"/>
-      <c r="CH5" s="340"/>
-      <c r="CI5" s="366"/>
+      <c r="CF5" s="419"/>
+      <c r="CG5" s="419"/>
+      <c r="CH5" s="419"/>
+      <c r="CI5" s="420"/>
       <c r="CK5" s="88"/>
-      <c r="CL5" s="399" t="s">
+      <c r="CL5" s="415" t="s">
         <v>279</v>
       </c>
-      <c r="CM5" s="400"/>
-      <c r="CN5" s="400"/>
-      <c r="CO5" s="400"/>
-      <c r="CP5" s="401"/>
+      <c r="CM5" s="416"/>
+      <c r="CN5" s="416"/>
+      <c r="CO5" s="416"/>
+      <c r="CP5" s="417"/>
     </row>
-    <row r="6" spans="1:94" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" ht="36" customHeight="1">
       <c r="A6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="510" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="297"/>
+      <c r="C6" s="510"/>
+      <c r="D6" s="510"/>
+      <c r="E6" s="510"/>
+      <c r="F6" s="511"/>
       <c r="H6" s="155" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="98"/>
-      <c r="J6" s="349" t="s">
+      <c r="J6" s="456" t="s">
         <v>350</v>
       </c>
-      <c r="K6" s="349"/>
-      <c r="L6" s="349"/>
-      <c r="M6" s="349"/>
-      <c r="N6" s="349"/>
-      <c r="O6" s="350"/>
-      <c r="Q6" s="447" t="s">
+      <c r="K6" s="456"/>
+      <c r="L6" s="456"/>
+      <c r="M6" s="456"/>
+      <c r="N6" s="456"/>
+      <c r="O6" s="457"/>
+      <c r="Q6" s="354" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="448"/>
-      <c r="S6" s="449" t="s">
+      <c r="R6" s="355"/>
+      <c r="S6" s="356" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="450"/>
-      <c r="U6" s="450"/>
-      <c r="V6" s="450"/>
-      <c r="W6" s="451"/>
+      <c r="T6" s="357"/>
+      <c r="U6" s="357"/>
+      <c r="V6" s="357"/>
+      <c r="W6" s="358"/>
       <c r="Y6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="332" t="s">
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="422" t="s">
         <v>172</v>
       </c>
-      <c r="AB6" s="332"/>
-      <c r="AC6" s="332"/>
-      <c r="AD6" s="332"/>
-      <c r="AE6" s="333"/>
+      <c r="AB6" s="422"/>
+      <c r="AC6" s="422"/>
+      <c r="AD6" s="422"/>
+      <c r="AE6" s="423"/>
       <c r="AG6" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="AH6" s="394" t="s">
+      <c r="AH6" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="AI6" s="394"/>
-      <c r="AJ6" s="394"/>
-      <c r="AK6" s="394"/>
-      <c r="AL6" s="395"/>
+      <c r="AI6" s="424"/>
+      <c r="AJ6" s="424"/>
+      <c r="AK6" s="424"/>
+      <c r="AL6" s="425"/>
       <c r="AN6" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="AO6" s="332" t="s">
+      <c r="AO6" s="422" t="s">
         <v>115</v>
       </c>
-      <c r="AP6" s="332"/>
-      <c r="AQ6" s="332"/>
-      <c r="AR6" s="332"/>
-      <c r="AS6" s="333"/>
+      <c r="AP6" s="422"/>
+      <c r="AQ6" s="422"/>
+      <c r="AR6" s="422"/>
+      <c r="AS6" s="423"/>
       <c r="AU6" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="285" t="s">
+      <c r="AV6" s="289" t="s">
         <v>116</v>
       </c>
-      <c r="AW6" s="285"/>
-      <c r="AX6" s="285"/>
-      <c r="AY6" s="285"/>
-      <c r="AZ6" s="286"/>
+      <c r="AW6" s="289"/>
+      <c r="AX6" s="289"/>
+      <c r="AY6" s="289"/>
+      <c r="AZ6" s="290"/>
       <c r="BB6" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="BC6" s="386" t="s">
+      <c r="BC6" s="426" t="s">
         <v>166</v>
       </c>
-      <c r="BD6" s="386"/>
-      <c r="BE6" s="386"/>
-      <c r="BF6" s="386"/>
-      <c r="BG6" s="396"/>
+      <c r="BD6" s="426"/>
+      <c r="BE6" s="426"/>
+      <c r="BF6" s="426"/>
+      <c r="BG6" s="427"/>
       <c r="BI6" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="BJ6" s="332" t="s">
+      <c r="BJ6" s="422" t="s">
         <v>173</v>
       </c>
-      <c r="BK6" s="332"/>
-      <c r="BL6" s="332"/>
-      <c r="BM6" s="332"/>
-      <c r="BN6" s="333"/>
+      <c r="BK6" s="422"/>
+      <c r="BL6" s="422"/>
+      <c r="BM6" s="422"/>
+      <c r="BN6" s="423"/>
       <c r="BP6" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="330" t="s">
+      <c r="BQ6" s="472" t="s">
         <v>160</v>
       </c>
-      <c r="BR6" s="330"/>
-      <c r="BS6" s="330"/>
-      <c r="BT6" s="330"/>
-      <c r="BU6" s="331"/>
+      <c r="BR6" s="472"/>
+      <c r="BS6" s="472"/>
+      <c r="BT6" s="472"/>
+      <c r="BU6" s="473"/>
       <c r="BW6" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="BX6" s="285" t="s">
+      <c r="BX6" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="BY6" s="285"/>
-      <c r="BZ6" s="285"/>
-      <c r="CA6" s="285"/>
-      <c r="CB6" s="286"/>
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="289"/>
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="290"/>
       <c r="CD6" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="CE6" s="285" t="s">
+      <c r="CE6" s="289" t="s">
         <v>363</v>
       </c>
-      <c r="CF6" s="285"/>
-      <c r="CG6" s="285"/>
-      <c r="CH6" s="285"/>
-      <c r="CI6" s="286"/>
+      <c r="CF6" s="289"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="289"/>
+      <c r="CI6" s="290"/>
       <c r="CK6" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="CL6" s="285" t="s">
+      <c r="CL6" s="289" t="s">
         <v>362</v>
       </c>
-      <c r="CM6" s="285"/>
-      <c r="CN6" s="285"/>
-      <c r="CO6" s="285"/>
-      <c r="CP6" s="286"/>
+      <c r="CM6" s="289"/>
+      <c r="CN6" s="289"/>
+      <c r="CO6" s="289"/>
+      <c r="CP6" s="290"/>
     </row>
-    <row r="7" spans="1:94" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" ht="36" customHeight="1" thickBot="1">
       <c r="A7" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="345" t="s">
+      <c r="B7" s="452" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="538" t="s">
+      <c r="C7" s="452"/>
+      <c r="D7" s="452"/>
+      <c r="E7" s="452"/>
+      <c r="F7" s="276" t="s">
         <v>561</v>
       </c>
-      <c r="H7" s="280">
+      <c r="H7" s="499">
         <v>1</v>
       </c>
-      <c r="I7" s="281"/>
+      <c r="I7" s="500"/>
       <c r="J7" s="108"/>
       <c r="K7" s="108"/>
       <c r="L7" s="108"/>
       <c r="M7" s="108"/>
       <c r="N7" s="108"/>
-      <c r="O7" s="537" t="s">
+      <c r="O7" s="275" t="s">
         <v>560</v>
       </c>
       <c r="Q7" s="103">
@@ -11818,7 +11886,7 @@
       <c r="AB7" s="108"/>
       <c r="AC7" s="108"/>
       <c r="AD7" s="108"/>
-      <c r="AE7" s="537" t="s">
+      <c r="AE7" s="275" t="s">
         <v>559</v>
       </c>
       <c r="AG7" s="103">
@@ -11860,7 +11928,7 @@
       <c r="BK7" s="108"/>
       <c r="BL7" s="108"/>
       <c r="BM7" s="108"/>
-      <c r="BN7" s="537" t="s">
+      <c r="BN7" s="275" t="s">
         <v>558</v>
       </c>
       <c r="BP7" s="103">
@@ -11874,430 +11942,430 @@
       <c r="BW7" s="103">
         <v>0</v>
       </c>
-      <c r="BX7" s="336" t="s">
+      <c r="BX7" s="430" t="s">
         <v>117</v>
       </c>
-      <c r="BY7" s="336"/>
-      <c r="BZ7" s="336"/>
-      <c r="CA7" s="336"/>
-      <c r="CB7" s="337"/>
+      <c r="BY7" s="430"/>
+      <c r="BZ7" s="430"/>
+      <c r="CA7" s="430"/>
+      <c r="CB7" s="431"/>
       <c r="CD7" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="CE7" s="336" t="s">
+      <c r="CE7" s="430" t="s">
         <v>291</v>
       </c>
-      <c r="CF7" s="336"/>
-      <c r="CG7" s="336"/>
-      <c r="CH7" s="336"/>
-      <c r="CI7" s="337"/>
+      <c r="CF7" s="430"/>
+      <c r="CG7" s="430"/>
+      <c r="CH7" s="430"/>
+      <c r="CI7" s="431"/>
       <c r="CK7" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="CL7" s="336" t="s">
+      <c r="CL7" s="430" t="s">
         <v>291</v>
       </c>
-      <c r="CM7" s="336"/>
-      <c r="CN7" s="336"/>
-      <c r="CO7" s="336"/>
-      <c r="CP7" s="337"/>
+      <c r="CM7" s="430"/>
+      <c r="CN7" s="430"/>
+      <c r="CO7" s="430"/>
+      <c r="CP7" s="431"/>
     </row>
-    <row r="8" spans="1:94" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:94" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" ht="8.1" customHeight="1"/>
+    <row r="9" spans="1:94" ht="21" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
+      <c r="B9" s="448"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="448"/>
+      <c r="E9" s="448"/>
       <c r="H9" s="91"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="274" t="s">
+      <c r="J9" s="385" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="275"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="275"/>
-      <c r="O9" s="276"/>
+      <c r="K9" s="386"/>
+      <c r="L9" s="386"/>
+      <c r="M9" s="386"/>
+      <c r="N9" s="386"/>
+      <c r="O9" s="387"/>
       <c r="P9" s="4"/>
       <c r="R9" s="89"/>
-      <c r="S9" s="274" t="s">
+      <c r="S9" s="385" t="s">
         <v>201</v>
       </c>
-      <c r="T9" s="275"/>
-      <c r="U9" s="275"/>
-      <c r="V9" s="275"/>
-      <c r="W9" s="276"/>
+      <c r="T9" s="386"/>
+      <c r="U9" s="386"/>
+      <c r="V9" s="386"/>
+      <c r="W9" s="387"/>
       <c r="Z9" s="89"/>
-      <c r="AA9" s="274" t="s">
+      <c r="AA9" s="385" t="s">
         <v>200</v>
       </c>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275"/>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="380"/>
+      <c r="AB9" s="386"/>
+      <c r="AC9" s="386"/>
+      <c r="AD9" s="386"/>
+      <c r="AE9" s="421"/>
       <c r="AG9" s="90" t="s">
         <v>554</v>
       </c>
-      <c r="AH9" s="377" t="s">
+      <c r="AH9" s="407" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" s="378"/>
-      <c r="AJ9" s="378"/>
-      <c r="AK9" s="378"/>
-      <c r="AL9" s="379"/>
+      <c r="AI9" s="408"/>
+      <c r="AJ9" s="408"/>
+      <c r="AK9" s="408"/>
+      <c r="AL9" s="409"/>
       <c r="AN9" s="56"/>
-      <c r="AO9" s="377" t="s">
+      <c r="AO9" s="407" t="s">
         <v>89</v>
       </c>
-      <c r="AP9" s="378"/>
-      <c r="AQ9" s="378"/>
-      <c r="AR9" s="378"/>
-      <c r="AS9" s="379"/>
+      <c r="AP9" s="408"/>
+      <c r="AQ9" s="408"/>
+      <c r="AR9" s="408"/>
+      <c r="AS9" s="409"/>
       <c r="AU9" s="56"/>
-      <c r="AV9" s="377" t="s">
+      <c r="AV9" s="407" t="s">
         <v>91</v>
       </c>
-      <c r="AW9" s="378"/>
-      <c r="AX9" s="378"/>
-      <c r="AY9" s="378"/>
-      <c r="AZ9" s="379"/>
+      <c r="AW9" s="408"/>
+      <c r="AX9" s="408"/>
+      <c r="AY9" s="408"/>
+      <c r="AZ9" s="409"/>
       <c r="BB9" s="56"/>
-      <c r="BC9" s="300" t="s">
+      <c r="BC9" s="412" t="s">
         <v>220</v>
       </c>
-      <c r="BD9" s="290"/>
-      <c r="BE9" s="290"/>
-      <c r="BF9" s="290"/>
-      <c r="BG9" s="291"/>
-      <c r="BI9" s="197"/>
-      <c r="BJ9" s="365" t="s">
+      <c r="BD9" s="413"/>
+      <c r="BE9" s="413"/>
+      <c r="BF9" s="413"/>
+      <c r="BG9" s="414"/>
+      <c r="BI9" s="196"/>
+      <c r="BJ9" s="418" t="s">
         <v>432</v>
       </c>
-      <c r="BK9" s="340"/>
-      <c r="BL9" s="340"/>
-      <c r="BM9" s="340"/>
-      <c r="BN9" s="366"/>
+      <c r="BK9" s="419"/>
+      <c r="BL9" s="419"/>
+      <c r="BM9" s="419"/>
+      <c r="BN9" s="420"/>
       <c r="BP9" s="90" t="s">
         <v>552</v>
       </c>
-      <c r="BQ9" s="282" t="s">
+      <c r="BQ9" s="405" t="s">
         <v>273</v>
       </c>
-      <c r="BR9" s="283"/>
-      <c r="BS9" s="283"/>
-      <c r="BT9" s="283"/>
-      <c r="BU9" s="284"/>
+      <c r="BR9" s="378"/>
+      <c r="BS9" s="378"/>
+      <c r="BT9" s="378"/>
+      <c r="BU9" s="406"/>
       <c r="BW9" s="56"/>
-      <c r="BX9" s="282" t="s">
+      <c r="BX9" s="405" t="s">
         <v>177</v>
       </c>
-      <c r="BY9" s="283"/>
-      <c r="BZ9" s="283"/>
-      <c r="CA9" s="283"/>
-      <c r="CB9" s="284"/>
+      <c r="BY9" s="378"/>
+      <c r="BZ9" s="378"/>
+      <c r="CA9" s="378"/>
+      <c r="CB9" s="406"/>
       <c r="CD9" s="89"/>
-      <c r="CE9" s="274" t="s">
+      <c r="CE9" s="385" t="s">
         <v>199</v>
       </c>
-      <c r="CF9" s="275"/>
-      <c r="CG9" s="275"/>
-      <c r="CH9" s="275"/>
-      <c r="CI9" s="380"/>
+      <c r="CF9" s="386"/>
+      <c r="CG9" s="386"/>
+      <c r="CH9" s="386"/>
+      <c r="CI9" s="421"/>
       <c r="CK9" s="14"/>
-      <c r="CL9" s="274" t="s">
+      <c r="CL9" s="385" t="s">
         <v>184</v>
       </c>
-      <c r="CM9" s="275"/>
-      <c r="CN9" s="275"/>
-      <c r="CO9" s="275"/>
-      <c r="CP9" s="276"/>
+      <c r="CM9" s="386"/>
+      <c r="CN9" s="386"/>
+      <c r="CO9" s="386"/>
+      <c r="CP9" s="387"/>
     </row>
-    <row r="10" spans="1:94" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:94" ht="36" customHeight="1">
       <c r="A10" s="35"/>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
+      <c r="B10" s="449"/>
+      <c r="C10" s="449"/>
+      <c r="D10" s="449"/>
+      <c r="E10" s="449"/>
       <c r="H10" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="519"/>
-      <c r="J10" s="383" t="s">
+      <c r="I10" s="270"/>
+      <c r="J10" s="330" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="383"/>
-      <c r="L10" s="383"/>
-      <c r="M10" s="383"/>
-      <c r="N10" s="383"/>
-      <c r="O10" s="505" t="s">
+      <c r="K10" s="330"/>
+      <c r="L10" s="330"/>
+      <c r="M10" s="330"/>
+      <c r="N10" s="330"/>
+      <c r="O10" s="262" t="s">
         <v>548</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="525" t="s">
+      <c r="Q10" s="312" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="526"/>
-      <c r="S10" s="492" t="s">
+      <c r="R10" s="313"/>
+      <c r="S10" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="492"/>
-      <c r="U10" s="492"/>
-      <c r="V10" s="492"/>
-      <c r="W10" s="504" t="s">
+      <c r="T10" s="309"/>
+      <c r="U10" s="309"/>
+      <c r="V10" s="309"/>
+      <c r="W10" s="261" t="s">
         <v>545</v>
       </c>
-      <c r="Y10" s="525" t="s">
+      <c r="Y10" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="526"/>
-      <c r="AA10" s="534" t="s">
+      <c r="Z10" s="313"/>
+      <c r="AA10" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="AB10" s="534"/>
-      <c r="AC10" s="534"/>
-      <c r="AD10" s="534"/>
-      <c r="AE10" s="499" t="s">
+      <c r="AB10" s="314"/>
+      <c r="AC10" s="314"/>
+      <c r="AD10" s="314"/>
+      <c r="AE10" s="256" t="s">
         <v>545</v>
       </c>
       <c r="AG10" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="AH10" s="469" t="s">
+      <c r="AH10" s="296" t="s">
         <v>367</v>
       </c>
-      <c r="AI10" s="469"/>
-      <c r="AJ10" s="469"/>
-      <c r="AK10" s="469"/>
+      <c r="AI10" s="296"/>
+      <c r="AJ10" s="296"/>
+      <c r="AK10" s="296"/>
       <c r="AL10" s="97"/>
       <c r="AN10" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="AO10" s="391" t="s">
+      <c r="AO10" s="428" t="s">
         <v>74</v>
       </c>
-      <c r="AP10" s="391"/>
-      <c r="AQ10" s="391"/>
-      <c r="AR10" s="391"/>
-      <c r="AS10" s="392"/>
+      <c r="AP10" s="428"/>
+      <c r="AQ10" s="428"/>
+      <c r="AR10" s="428"/>
+      <c r="AS10" s="429"/>
       <c r="AU10" s="151" t="s">
         <v>364</v>
       </c>
-      <c r="AV10" s="372" t="s">
+      <c r="AV10" s="410" t="s">
         <v>374</v>
       </c>
-      <c r="AW10" s="372"/>
-      <c r="AX10" s="372"/>
-      <c r="AY10" s="372"/>
-      <c r="AZ10" s="373"/>
+      <c r="AW10" s="410"/>
+      <c r="AX10" s="410"/>
+      <c r="AY10" s="410"/>
+      <c r="AZ10" s="411"/>
       <c r="BB10" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="BC10" s="285" t="s">
+      <c r="BC10" s="289" t="s">
         <v>503</v>
       </c>
-      <c r="BD10" s="285"/>
-      <c r="BE10" s="285"/>
-      <c r="BF10" s="285"/>
-      <c r="BG10" s="286"/>
-      <c r="BI10" s="502" t="s">
+      <c r="BD10" s="289"/>
+      <c r="BE10" s="289"/>
+      <c r="BF10" s="289"/>
+      <c r="BG10" s="290"/>
+      <c r="BI10" s="259" t="s">
         <v>85</v>
       </c>
-      <c r="BJ10" s="402" t="s">
+      <c r="BJ10" s="401" t="s">
         <v>397</v>
       </c>
-      <c r="BK10" s="402"/>
-      <c r="BL10" s="402"/>
-      <c r="BM10" s="402"/>
-      <c r="BN10" s="403"/>
+      <c r="BK10" s="401"/>
+      <c r="BL10" s="401"/>
+      <c r="BM10" s="401"/>
+      <c r="BN10" s="402"/>
       <c r="BP10" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="BQ10" s="402" t="s">
+      <c r="BQ10" s="401" t="s">
         <v>210</v>
       </c>
-      <c r="BR10" s="402"/>
-      <c r="BS10" s="402"/>
-      <c r="BT10" s="402"/>
-      <c r="BU10" s="403"/>
+      <c r="BR10" s="401"/>
+      <c r="BS10" s="401"/>
+      <c r="BT10" s="401"/>
+      <c r="BU10" s="402"/>
       <c r="BW10" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="BX10" s="285" t="s">
+      <c r="BX10" s="289" t="s">
         <v>161</v>
       </c>
-      <c r="BY10" s="285"/>
-      <c r="BZ10" s="285"/>
-      <c r="CA10" s="285"/>
-      <c r="CB10" s="286"/>
-      <c r="CD10" s="456" t="s">
+      <c r="BY10" s="289"/>
+      <c r="BZ10" s="289"/>
+      <c r="CA10" s="289"/>
+      <c r="CB10" s="290"/>
+      <c r="CD10" s="252" t="s">
         <v>106</v>
       </c>
-      <c r="CE10" s="457" t="s">
+      <c r="CE10" s="396" t="s">
         <v>547</v>
       </c>
-      <c r="CF10" s="457"/>
-      <c r="CG10" s="457"/>
-      <c r="CH10" s="457"/>
-      <c r="CI10" s="458"/>
+      <c r="CF10" s="396"/>
+      <c r="CG10" s="396"/>
+      <c r="CH10" s="396"/>
+      <c r="CI10" s="397"/>
       <c r="CK10" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="CL10" s="338" t="s">
+      <c r="CL10" s="391" t="s">
         <v>62</v>
       </c>
-      <c r="CM10" s="338"/>
-      <c r="CN10" s="338"/>
-      <c r="CO10" s="338"/>
-      <c r="CP10" s="339"/>
+      <c r="CM10" s="391"/>
+      <c r="CN10" s="391"/>
+      <c r="CO10" s="391"/>
+      <c r="CP10" s="392"/>
     </row>
-    <row r="11" spans="1:94" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" ht="36" customHeight="1" thickBot="1">
       <c r="A11" s="129"/>
-      <c r="B11" s="341" t="s">
+      <c r="B11" s="446" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="341"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="342"/>
-      <c r="H11" s="521" t="s">
+      <c r="C11" s="446"/>
+      <c r="D11" s="446"/>
+      <c r="E11" s="447"/>
+      <c r="H11" s="272" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="520"/>
-      <c r="J11" s="513" t="s">
+      <c r="I11" s="271"/>
+      <c r="J11" s="501" t="s">
         <v>138</v>
       </c>
-      <c r="K11" s="513"/>
-      <c r="L11" s="513"/>
-      <c r="M11" s="513"/>
-      <c r="N11" s="513"/>
-      <c r="O11" s="514"/>
+      <c r="K11" s="501"/>
+      <c r="L11" s="501"/>
+      <c r="M11" s="501"/>
+      <c r="N11" s="501"/>
+      <c r="O11" s="502"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="454" t="s">
+      <c r="Q11" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="455"/>
-      <c r="S11" s="314" t="s">
+      <c r="R11" s="320"/>
+      <c r="S11" s="310" t="s">
         <v>544</v>
       </c>
-      <c r="T11" s="323"/>
-      <c r="U11" s="323"/>
-      <c r="V11" s="323"/>
-      <c r="W11" s="251" t="s">
+      <c r="T11" s="311"/>
+      <c r="U11" s="311"/>
+      <c r="V11" s="311"/>
+      <c r="W11" s="250" t="s">
         <v>399</v>
       </c>
-      <c r="Y11" s="535" t="s">
+      <c r="Y11" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="536"/>
-      <c r="AA11" s="311" t="s">
+      <c r="Z11" s="316"/>
+      <c r="AA11" s="359" t="s">
         <v>396</v>
       </c>
-      <c r="AB11" s="311"/>
-      <c r="AC11" s="311"/>
-      <c r="AD11" s="311"/>
-      <c r="AE11" s="312"/>
+      <c r="AB11" s="359"/>
+      <c r="AC11" s="359"/>
+      <c r="AD11" s="359"/>
+      <c r="AE11" s="360"/>
       <c r="AG11" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="AH11" s="470" t="s">
+      <c r="AH11" s="297" t="s">
         <v>368</v>
       </c>
-      <c r="AI11" s="470"/>
-      <c r="AJ11" s="470"/>
-      <c r="AK11" s="470"/>
-      <c r="AL11" s="509" t="s">
+      <c r="AI11" s="297"/>
+      <c r="AJ11" s="297"/>
+      <c r="AK11" s="297"/>
+      <c r="AL11" s="266" t="s">
         <v>548</v>
       </c>
       <c r="AN11" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="AO11" s="393" t="s">
+      <c r="AO11" s="298" t="s">
         <v>73</v>
       </c>
-      <c r="AP11" s="393"/>
-      <c r="AQ11" s="393"/>
-      <c r="AR11" s="393"/>
+      <c r="AP11" s="298"/>
+      <c r="AQ11" s="298"/>
+      <c r="AR11" s="298"/>
       <c r="AS11" s="102" t="s">
         <v>349</v>
       </c>
       <c r="AU11" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="AV11" s="367" t="s">
+      <c r="AV11" s="299" t="s">
         <v>373</v>
       </c>
-      <c r="AW11" s="367"/>
-      <c r="AX11" s="367"/>
-      <c r="AY11" s="367"/>
-      <c r="AZ11" s="368"/>
+      <c r="AW11" s="299"/>
+      <c r="AX11" s="299"/>
+      <c r="AY11" s="299"/>
+      <c r="AZ11" s="300"/>
       <c r="BB11" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="BC11" s="369" t="s">
+      <c r="BC11" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="BD11" s="369"/>
-      <c r="BE11" s="369"/>
-      <c r="BF11" s="369"/>
-      <c r="BG11" s="507" t="s">
+      <c r="BD11" s="303"/>
+      <c r="BE11" s="303"/>
+      <c r="BF11" s="303"/>
+      <c r="BG11" s="264" t="s">
         <v>553</v>
       </c>
-      <c r="BI11" s="501" t="s">
+      <c r="BI11" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="BJ11" s="426" t="s">
+      <c r="BJ11" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="BK11" s="426"/>
-      <c r="BL11" s="426"/>
-      <c r="BM11" s="426"/>
-      <c r="BN11" s="500" t="s">
+      <c r="BK11" s="304"/>
+      <c r="BL11" s="304"/>
+      <c r="BM11" s="304"/>
+      <c r="BN11" s="257" t="s">
         <v>349</v>
       </c>
       <c r="BP11" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="BQ11" s="370" t="s">
+      <c r="BQ11" s="403" t="s">
         <v>75</v>
       </c>
-      <c r="BR11" s="370"/>
-      <c r="BS11" s="370"/>
-      <c r="BT11" s="370"/>
-      <c r="BU11" s="371"/>
+      <c r="BR11" s="403"/>
+      <c r="BS11" s="403"/>
+      <c r="BT11" s="403"/>
+      <c r="BU11" s="404"/>
       <c r="BW11" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="BX11" s="306" t="s">
+      <c r="BX11" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="BY11" s="306"/>
-      <c r="BZ11" s="306"/>
-      <c r="CA11" s="306"/>
-      <c r="CB11" s="307"/>
-      <c r="CD11" s="503" t="s">
+      <c r="BY11" s="305"/>
+      <c r="BZ11" s="305"/>
+      <c r="CA11" s="305"/>
+      <c r="CB11" s="306"/>
+      <c r="CD11" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="CE11" s="314" t="s">
+      <c r="CE11" s="310" t="s">
         <v>546</v>
       </c>
-      <c r="CF11" s="314"/>
-      <c r="CG11" s="314"/>
-      <c r="CH11" s="314"/>
-      <c r="CI11" s="315"/>
+      <c r="CF11" s="310"/>
+      <c r="CG11" s="310"/>
+      <c r="CH11" s="310"/>
+      <c r="CI11" s="398"/>
       <c r="CK11" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="CL11" s="408" t="s">
+      <c r="CL11" s="432" t="s">
         <v>104</v>
       </c>
-      <c r="CM11" s="408"/>
-      <c r="CN11" s="408"/>
-      <c r="CO11" s="408"/>
-      <c r="CP11" s="510" t="s">
+      <c r="CM11" s="432"/>
+      <c r="CN11" s="432"/>
+      <c r="CO11" s="432"/>
+      <c r="CP11" s="267" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:94" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:94" ht="8.1" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -12306,306 +12374,304 @@
       <c r="F12" s="5"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:94" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:94" ht="21" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="292"/>
-      <c r="E13" s="292"/>
+      <c r="B13" s="448"/>
+      <c r="C13" s="448"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
       <c r="H13" s="93" t="s">
         <v>557</v>
       </c>
       <c r="I13" s="91"/>
-      <c r="J13" s="289" t="s">
+      <c r="J13" s="438" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="290"/>
-      <c r="L13" s="290"/>
-      <c r="M13" s="290"/>
-      <c r="N13" s="290"/>
-      <c r="O13" s="291"/>
-      <c r="Q13" s="527"/>
-      <c r="R13" s="528"/>
-      <c r="S13" s="413" t="s">
+      <c r="K13" s="413"/>
+      <c r="L13" s="413"/>
+      <c r="M13" s="413"/>
+      <c r="N13" s="413"/>
+      <c r="O13" s="414"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="453" t="s">
         <v>133</v>
       </c>
-      <c r="T13" s="414"/>
-      <c r="U13" s="414"/>
-      <c r="V13" s="414"/>
-      <c r="W13" s="415"/>
+      <c r="T13" s="454"/>
+      <c r="U13" s="454"/>
+      <c r="V13" s="454"/>
+      <c r="W13" s="455"/>
       <c r="Y13" s="57"/>
       <c r="Z13" s="57"/>
-      <c r="AA13" s="357" t="s">
+      <c r="AA13" s="441" t="s">
         <v>90</v>
       </c>
-      <c r="AB13" s="358"/>
-      <c r="AC13" s="358"/>
-      <c r="AD13" s="358"/>
-      <c r="AE13" s="359"/>
+      <c r="AB13" s="442"/>
+      <c r="AC13" s="442"/>
+      <c r="AD13" s="442"/>
+      <c r="AE13" s="443"/>
       <c r="AG13" s="88"/>
-      <c r="AH13" s="377" t="s">
+      <c r="AH13" s="407" t="s">
         <v>159</v>
       </c>
-      <c r="AI13" s="378"/>
-      <c r="AJ13" s="378"/>
-      <c r="AK13" s="378"/>
-      <c r="AL13" s="379"/>
+      <c r="AI13" s="408"/>
+      <c r="AJ13" s="408"/>
+      <c r="AK13" s="408"/>
+      <c r="AL13" s="409"/>
       <c r="AN13" s="89"/>
-      <c r="AO13" s="274" t="s">
+      <c r="AO13" s="385" t="s">
         <v>196</v>
       </c>
-      <c r="AP13" s="275"/>
-      <c r="AQ13" s="275"/>
-      <c r="AR13" s="275"/>
-      <c r="AS13" s="380"/>
-      <c r="AU13" s="508" t="s">
+      <c r="AP13" s="386"/>
+      <c r="AQ13" s="386"/>
+      <c r="AR13" s="386"/>
+      <c r="AS13" s="421"/>
+      <c r="AU13" s="265" t="s">
         <v>551</v>
       </c>
-      <c r="AV13" s="357" t="s">
+      <c r="AV13" s="441" t="s">
         <v>137</v>
       </c>
-      <c r="AW13" s="358"/>
-      <c r="AX13" s="358"/>
-      <c r="AY13" s="358"/>
-      <c r="AZ13" s="359"/>
+      <c r="AW13" s="442"/>
+      <c r="AX13" s="442"/>
+      <c r="AY13" s="442"/>
+      <c r="AZ13" s="443"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="274" t="s">
+      <c r="BC13" s="385" t="s">
         <v>203</v>
       </c>
-      <c r="BD13" s="275"/>
-      <c r="BE13" s="275"/>
-      <c r="BF13" s="275"/>
-      <c r="BG13" s="276"/>
+      <c r="BD13" s="386"/>
+      <c r="BE13" s="386"/>
+      <c r="BF13" s="386"/>
+      <c r="BG13" s="387"/>
       <c r="BI13" s="90" t="s">
         <v>551</v>
       </c>
-      <c r="BJ13" s="399" t="s">
+      <c r="BJ13" s="415" t="s">
         <v>280</v>
       </c>
-      <c r="BK13" s="400"/>
-      <c r="BL13" s="400"/>
-      <c r="BM13" s="400"/>
-      <c r="BN13" s="401"/>
-      <c r="BP13" s="506" t="s">
+      <c r="BK13" s="416"/>
+      <c r="BL13" s="416"/>
+      <c r="BM13" s="416"/>
+      <c r="BN13" s="417"/>
+      <c r="BP13" s="263" t="s">
         <v>389</v>
       </c>
-      <c r="BQ13" s="374" t="s">
+      <c r="BQ13" s="399" t="s">
         <v>62</v>
       </c>
-      <c r="BR13" s="375"/>
-      <c r="BS13" s="375"/>
-      <c r="BT13" s="375"/>
-      <c r="BU13" s="376"/>
+      <c r="BR13" s="340"/>
+      <c r="BS13" s="340"/>
+      <c r="BT13" s="340"/>
+      <c r="BU13" s="400"/>
       <c r="BW13" s="4"/>
-      <c r="BX13" s="346"/>
-      <c r="BY13" s="347"/>
-      <c r="BZ13" s="347"/>
-      <c r="CA13" s="347"/>
-      <c r="CB13" s="348"/>
+      <c r="BX13" s="393"/>
+      <c r="BY13" s="394"/>
+      <c r="BZ13" s="394"/>
+      <c r="CA13" s="394"/>
+      <c r="CB13" s="395"/>
       <c r="CD13" s="89"/>
-      <c r="CE13" s="274" t="s">
-        <v>197</v>
-      </c>
-      <c r="CF13" s="275"/>
-      <c r="CG13" s="275"/>
-      <c r="CH13" s="275"/>
-      <c r="CI13" s="380"/>
+      <c r="CE13" s="536" t="s">
+        <v>562</v>
+      </c>
+      <c r="CF13" s="386"/>
+      <c r="CG13" s="386"/>
+      <c r="CH13" s="386"/>
+      <c r="CI13" s="421"/>
       <c r="CK13" s="56"/>
-      <c r="CL13" s="274" t="s">
+      <c r="CL13" s="385" t="s">
         <v>198</v>
       </c>
-      <c r="CM13" s="275"/>
-      <c r="CN13" s="275"/>
-      <c r="CO13" s="275"/>
-      <c r="CP13" s="276"/>
+      <c r="CM13" s="386"/>
+      <c r="CN13" s="386"/>
+      <c r="CO13" s="386"/>
+      <c r="CP13" s="387"/>
     </row>
-    <row r="14" spans="1:94" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:94" ht="36" customHeight="1">
       <c r="A14" s="35"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
-      <c r="H14" s="298" t="s">
+      <c r="B14" s="449"/>
+      <c r="C14" s="449"/>
+      <c r="D14" s="449"/>
+      <c r="E14" s="449"/>
+      <c r="H14" s="464" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="299"/>
-      <c r="J14" s="351" t="s">
+      <c r="I14" s="465"/>
+      <c r="J14" s="458" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="351"/>
-      <c r="L14" s="351"/>
-      <c r="M14" s="351"/>
-      <c r="N14" s="351"/>
-      <c r="O14" s="352"/>
-      <c r="Q14" s="529" t="s">
+      <c r="K14" s="458"/>
+      <c r="L14" s="458"/>
+      <c r="M14" s="458"/>
+      <c r="N14" s="458"/>
+      <c r="O14" s="459"/>
+      <c r="Q14" s="512" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="530"/>
-      <c r="S14" s="409" t="s">
+      <c r="R14" s="513"/>
+      <c r="S14" s="460" t="s">
         <v>366</v>
       </c>
-      <c r="T14" s="409"/>
-      <c r="U14" s="409"/>
-      <c r="V14" s="409"/>
-      <c r="W14" s="410"/>
-      <c r="Y14" s="452" t="s">
+      <c r="T14" s="460"/>
+      <c r="U14" s="460"/>
+      <c r="V14" s="460"/>
+      <c r="W14" s="461"/>
+      <c r="Y14" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="Z14" s="453"/>
-      <c r="AA14" s="285" t="s">
+      <c r="Z14" s="318"/>
+      <c r="AA14" s="289" t="s">
         <v>375</v>
       </c>
-      <c r="AB14" s="285"/>
-      <c r="AC14" s="285"/>
-      <c r="AD14" s="285"/>
-      <c r="AE14" s="286"/>
+      <c r="AB14" s="289"/>
+      <c r="AC14" s="289"/>
+      <c r="AD14" s="289"/>
+      <c r="AE14" s="290"/>
       <c r="AG14" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="AH14" s="386" t="s">
+      <c r="AH14" s="426" t="s">
         <v>208</v>
       </c>
-      <c r="AI14" s="386"/>
-      <c r="AJ14" s="386"/>
-      <c r="AK14" s="386"/>
-      <c r="AL14" s="396"/>
+      <c r="AI14" s="426"/>
+      <c r="AJ14" s="426"/>
+      <c r="AK14" s="426"/>
+      <c r="AL14" s="427"/>
       <c r="AN14" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="397" t="s">
+      <c r="AO14" s="478" t="s">
         <v>80</v>
       </c>
-      <c r="AP14" s="397"/>
-      <c r="AQ14" s="397"/>
-      <c r="AR14" s="397"/>
-      <c r="AS14" s="398"/>
+      <c r="AP14" s="478"/>
+      <c r="AQ14" s="478"/>
+      <c r="AR14" s="478"/>
+      <c r="AS14" s="479"/>
       <c r="AU14" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="AV14" s="387" t="s">
+      <c r="AV14" s="301" t="s">
         <v>93</v>
       </c>
-      <c r="AW14" s="387"/>
-      <c r="AX14" s="387"/>
-      <c r="AY14" s="387"/>
+      <c r="AW14" s="301"/>
+      <c r="AX14" s="301"/>
+      <c r="AY14" s="301"/>
       <c r="AZ14" s="99"/>
       <c r="BB14" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="BC14" s="285" t="s">
+      <c r="BC14" s="289" t="s">
         <v>100</v>
       </c>
-      <c r="BD14" s="285"/>
-      <c r="BE14" s="285"/>
-      <c r="BF14" s="285"/>
-      <c r="BG14" s="286"/>
+      <c r="BD14" s="289"/>
+      <c r="BE14" s="289"/>
+      <c r="BF14" s="289"/>
+      <c r="BG14" s="290"/>
       <c r="BI14" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="BJ14" s="372" t="s">
+      <c r="BJ14" s="410" t="s">
         <v>516</v>
       </c>
-      <c r="BK14" s="372"/>
-      <c r="BL14" s="372"/>
-      <c r="BM14" s="372"/>
-      <c r="BN14" s="373"/>
-      <c r="BP14" s="456" t="s">
+      <c r="BK14" s="410"/>
+      <c r="BL14" s="410"/>
+      <c r="BM14" s="410"/>
+      <c r="BN14" s="411"/>
+      <c r="BP14" s="252" t="s">
         <v>88</v>
       </c>
-      <c r="BQ14" s="457" t="s">
+      <c r="BQ14" s="396" t="s">
         <v>425</v>
       </c>
-      <c r="BR14" s="457"/>
-      <c r="BS14" s="457"/>
-      <c r="BT14" s="457"/>
-      <c r="BU14" s="458"/>
-      <c r="BW14" s="250" t="s">
+      <c r="BR14" s="396"/>
+      <c r="BS14" s="396"/>
+      <c r="BT14" s="396"/>
+      <c r="BU14" s="397"/>
+      <c r="BW14" s="249" t="s">
         <v>68</v>
       </c>
-      <c r="BX14" s="353" t="s">
+      <c r="BX14" s="476" t="s">
         <v>96</v>
       </c>
-      <c r="BY14" s="353"/>
-      <c r="BZ14" s="353"/>
-      <c r="CA14" s="353"/>
-      <c r="CB14" s="354"/>
-      <c r="CD14" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="CE14" s="383" t="s">
-        <v>112</v>
-      </c>
-      <c r="CF14" s="383"/>
-      <c r="CG14" s="383"/>
-      <c r="CH14" s="383"/>
-      <c r="CI14" s="505" t="s">
-        <v>548</v>
-      </c>
+      <c r="BY14" s="476"/>
+      <c r="BZ14" s="476"/>
+      <c r="CA14" s="476"/>
+      <c r="CB14" s="477"/>
+      <c r="CD14" s="537" t="s">
+        <v>563</v>
+      </c>
+      <c r="CE14" s="538" t="s">
+        <v>564</v>
+      </c>
+      <c r="CF14" s="289"/>
+      <c r="CG14" s="289"/>
+      <c r="CH14" s="289"/>
+      <c r="CI14" s="539"/>
       <c r="CK14" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="CL14" s="334" t="s">
+      <c r="CL14" s="474" t="s">
         <v>207</v>
       </c>
-      <c r="CM14" s="334"/>
-      <c r="CN14" s="334"/>
-      <c r="CO14" s="334"/>
-      <c r="CP14" s="335"/>
+      <c r="CM14" s="474"/>
+      <c r="CN14" s="474"/>
+      <c r="CO14" s="474"/>
+      <c r="CP14" s="475"/>
     </row>
-    <row r="15" spans="1:94" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" ht="36" customHeight="1" thickBot="1">
       <c r="A15" s="130"/>
-      <c r="B15" s="343" t="s">
+      <c r="B15" s="450" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="343"/>
-      <c r="D15" s="343"/>
-      <c r="E15" s="344"/>
-      <c r="H15" s="363" t="s">
+      <c r="C15" s="450"/>
+      <c r="D15" s="450"/>
+      <c r="E15" s="451"/>
+      <c r="H15" s="466" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="364"/>
-      <c r="J15" s="303" t="s">
+      <c r="I15" s="467"/>
+      <c r="J15" s="518" t="s">
         <v>513</v>
       </c>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="294" t="s">
+      <c r="K15" s="518"/>
+      <c r="L15" s="518"/>
+      <c r="M15" s="518"/>
+      <c r="N15" s="506" t="s">
         <v>514</v>
       </c>
-      <c r="O15" s="295"/>
-      <c r="Q15" s="531" t="s">
+      <c r="O15" s="507"/>
+      <c r="Q15" s="508" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="532"/>
-      <c r="S15" s="411" t="s">
+      <c r="R15" s="509"/>
+      <c r="S15" s="462" t="s">
         <v>365</v>
       </c>
-      <c r="T15" s="411"/>
-      <c r="U15" s="411"/>
-      <c r="V15" s="411"/>
-      <c r="W15" s="412"/>
-      <c r="Y15" s="454" t="s">
+      <c r="T15" s="462"/>
+      <c r="U15" s="462"/>
+      <c r="V15" s="462"/>
+      <c r="W15" s="463"/>
+      <c r="Y15" s="319" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="455"/>
-      <c r="AA15" s="360" t="s">
+      <c r="Z15" s="320"/>
+      <c r="AA15" s="321" t="s">
         <v>510</v>
       </c>
-      <c r="AB15" s="361"/>
-      <c r="AC15" s="361"/>
-      <c r="AD15" s="361"/>
-      <c r="AE15" s="362"/>
+      <c r="AB15" s="322"/>
+      <c r="AC15" s="322"/>
+      <c r="AD15" s="322"/>
+      <c r="AE15" s="323"/>
       <c r="AG15" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="467" t="s">
+      <c r="AH15" s="436" t="s">
         <v>72</v>
       </c>
-      <c r="AI15" s="467"/>
-      <c r="AJ15" s="467"/>
-      <c r="AK15" s="467"/>
-      <c r="AL15" s="468"/>
+      <c r="AI15" s="436"/>
+      <c r="AJ15" s="436"/>
+      <c r="AK15" s="436"/>
+      <c r="AL15" s="437"/>
       <c r="AN15" s="107" t="s">
         <v>24</v>
       </c>
@@ -12621,65 +12687,65 @@
       <c r="AU15" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="AV15" s="446" t="s">
+      <c r="AV15" s="302" t="s">
         <v>82</v>
       </c>
-      <c r="AW15" s="446"/>
-      <c r="AX15" s="446"/>
-      <c r="AY15" s="446"/>
+      <c r="AW15" s="302"/>
+      <c r="AX15" s="302"/>
+      <c r="AY15" s="302"/>
       <c r="AZ15" s="102" t="s">
         <v>349</v>
       </c>
       <c r="BB15" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="BC15" s="384" t="s">
+      <c r="BC15" s="444" t="s">
         <v>61</v>
       </c>
-      <c r="BD15" s="384"/>
-      <c r="BE15" s="384"/>
-      <c r="BF15" s="384"/>
-      <c r="BG15" s="385"/>
+      <c r="BD15" s="444"/>
+      <c r="BE15" s="444"/>
+      <c r="BF15" s="444"/>
+      <c r="BG15" s="445"/>
       <c r="BI15" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="BJ15" s="367" t="s">
+      <c r="BJ15" s="299" t="s">
         <v>517</v>
       </c>
-      <c r="BK15" s="367"/>
-      <c r="BL15" s="367"/>
-      <c r="BM15" s="367"/>
-      <c r="BN15" s="368"/>
-      <c r="BP15" s="249" t="s">
+      <c r="BK15" s="299"/>
+      <c r="BL15" s="299"/>
+      <c r="BM15" s="299"/>
+      <c r="BN15" s="300"/>
+      <c r="BP15" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="BQ15" s="314" t="s">
+      <c r="BQ15" s="310" t="s">
         <v>543</v>
       </c>
-      <c r="BR15" s="314"/>
-      <c r="BS15" s="314"/>
-      <c r="BT15" s="314"/>
-      <c r="BU15" s="315"/>
-      <c r="BW15" s="252" t="s">
+      <c r="BR15" s="310"/>
+      <c r="BS15" s="310"/>
+      <c r="BT15" s="310"/>
+      <c r="BU15" s="398"/>
+      <c r="BW15" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="BX15" s="355" t="s">
+      <c r="BX15" s="307" t="s">
         <v>97</v>
       </c>
-      <c r="BY15" s="355"/>
-      <c r="BZ15" s="355"/>
-      <c r="CA15" s="355"/>
-      <c r="CB15" s="356"/>
-      <c r="CD15" s="158" t="s">
-        <v>114</v>
-      </c>
-      <c r="CE15" s="381" t="s">
-        <v>138</v>
-      </c>
-      <c r="CF15" s="381"/>
-      <c r="CG15" s="381"/>
-      <c r="CH15" s="381"/>
-      <c r="CI15" s="382"/>
+      <c r="BY15" s="307"/>
+      <c r="BZ15" s="307"/>
+      <c r="CA15" s="307"/>
+      <c r="CB15" s="308"/>
+      <c r="CD15" s="542" t="s">
+        <v>565</v>
+      </c>
+      <c r="CE15" s="540" t="s">
+        <v>63</v>
+      </c>
+      <c r="CF15" s="540"/>
+      <c r="CG15" s="540"/>
+      <c r="CH15" s="540"/>
+      <c r="CI15" s="541"/>
       <c r="CK15" s="104" t="s">
         <v>171</v>
       </c>
@@ -12691,7 +12757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:94" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:94" ht="8.1" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12699,7 +12765,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:94" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:94" ht="21" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="E17" s="150" t="s">
@@ -12710,229 +12776,229 @@
       </c>
       <c r="H17" s="92"/>
       <c r="I17" s="92"/>
-      <c r="J17" s="522" t="s">
+      <c r="J17" s="503" t="s">
         <v>358</v>
       </c>
-      <c r="K17" s="523"/>
-      <c r="L17" s="523"/>
-      <c r="M17" s="523"/>
-      <c r="N17" s="523"/>
-      <c r="O17" s="524"/>
+      <c r="K17" s="504"/>
+      <c r="L17" s="504"/>
+      <c r="M17" s="504"/>
+      <c r="N17" s="504"/>
+      <c r="O17" s="505"/>
       <c r="Q17" s="93" t="s">
         <v>549</v>
       </c>
       <c r="R17" s="93"/>
-      <c r="S17" s="365" t="s">
+      <c r="S17" s="418" t="s">
         <v>288</v>
       </c>
-      <c r="T17" s="340"/>
-      <c r="U17" s="340"/>
-      <c r="V17" s="340"/>
-      <c r="W17" s="366"/>
+      <c r="T17" s="419"/>
+      <c r="U17" s="419"/>
+      <c r="V17" s="419"/>
+      <c r="W17" s="420"/>
       <c r="Y17" s="90" t="s">
         <v>550</v>
       </c>
       <c r="Z17" s="90"/>
-      <c r="AA17" s="274" t="s">
+      <c r="AA17" s="385" t="s">
         <v>214</v>
       </c>
-      <c r="AB17" s="275"/>
-      <c r="AC17" s="275"/>
-      <c r="AD17" s="275"/>
-      <c r="AE17" s="276"/>
+      <c r="AB17" s="386"/>
+      <c r="AC17" s="386"/>
+      <c r="AD17" s="386"/>
+      <c r="AE17" s="387"/>
       <c r="AG17" s="14"/>
-      <c r="AH17" s="388"/>
-      <c r="AI17" s="389"/>
-      <c r="AJ17" s="389"/>
-      <c r="AK17" s="389"/>
-      <c r="AL17" s="390"/>
-      <c r="AN17" s="498" t="s">
+      <c r="AH17" s="433"/>
+      <c r="AI17" s="434"/>
+      <c r="AJ17" s="434"/>
+      <c r="AK17" s="434"/>
+      <c r="AL17" s="435"/>
+      <c r="AN17" s="255" t="s">
         <v>356</v>
       </c>
-      <c r="AO17" s="289" t="s">
+      <c r="AO17" s="438" t="s">
         <v>293</v>
       </c>
-      <c r="AP17" s="290"/>
-      <c r="AQ17" s="290"/>
-      <c r="AR17" s="290"/>
-      <c r="AS17" s="291"/>
+      <c r="AP17" s="413"/>
+      <c r="AQ17" s="413"/>
+      <c r="AR17" s="413"/>
+      <c r="AS17" s="414"/>
       <c r="AU17" s="88"/>
-      <c r="AV17" s="374" t="s">
+      <c r="AV17" s="399" t="s">
         <v>92</v>
       </c>
-      <c r="AW17" s="375"/>
-      <c r="AX17" s="375"/>
-      <c r="AY17" s="375"/>
-      <c r="AZ17" s="376"/>
+      <c r="AW17" s="340"/>
+      <c r="AX17" s="340"/>
+      <c r="AY17" s="340"/>
+      <c r="AZ17" s="400"/>
       <c r="BB17" s="90" t="s">
         <v>550</v>
       </c>
-      <c r="BC17" s="274" t="s">
+      <c r="BC17" s="385" t="s">
         <v>204</v>
       </c>
-      <c r="BD17" s="275"/>
-      <c r="BE17" s="275"/>
-      <c r="BF17" s="275"/>
-      <c r="BG17" s="276"/>
+      <c r="BD17" s="386"/>
+      <c r="BE17" s="386"/>
+      <c r="BF17" s="386"/>
+      <c r="BG17" s="387"/>
       <c r="BH17" s="4"/>
       <c r="BI17" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BJ17" s="282" t="s">
+      <c r="BJ17" s="405" t="s">
         <v>180</v>
       </c>
-      <c r="BK17" s="283"/>
-      <c r="BL17" s="283"/>
-      <c r="BM17" s="283"/>
-      <c r="BN17" s="284"/>
+      <c r="BK17" s="378"/>
+      <c r="BL17" s="378"/>
+      <c r="BM17" s="378"/>
+      <c r="BN17" s="406"/>
       <c r="BP17" s="94"/>
-      <c r="BQ17" s="300" t="s">
+      <c r="BQ17" s="412" t="s">
         <v>288</v>
       </c>
-      <c r="BR17" s="290"/>
-      <c r="BS17" s="290"/>
-      <c r="BT17" s="290"/>
-      <c r="BU17" s="291"/>
+      <c r="BR17" s="413"/>
+      <c r="BS17" s="413"/>
+      <c r="BT17" s="413"/>
+      <c r="BU17" s="414"/>
       <c r="BW17" s="92"/>
-      <c r="BX17" s="459" t="s">
+      <c r="BX17" s="439" t="s">
         <v>487</v>
       </c>
-      <c r="BY17" s="386"/>
-      <c r="BZ17" s="386"/>
-      <c r="CA17" s="386"/>
-      <c r="CB17" s="460"/>
+      <c r="BY17" s="426"/>
+      <c r="BZ17" s="426"/>
+      <c r="CA17" s="426"/>
+      <c r="CB17" s="440"/>
       <c r="CD17" s="36" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:94" ht="18" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="E18" s="33"/>
       <c r="F18" s="19"/>
-      <c r="H18" s="473" t="s">
+      <c r="H18" s="519" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="463"/>
-      <c r="J18" s="471" t="s">
+      <c r="I18" s="328"/>
+      <c r="J18" s="361" t="s">
         <v>536</v>
       </c>
-      <c r="K18" s="471"/>
-      <c r="L18" s="471"/>
-      <c r="M18" s="471"/>
-      <c r="N18" s="471"/>
-      <c r="O18" s="517"/>
-      <c r="Q18" s="481" t="s">
+      <c r="K18" s="361"/>
+      <c r="L18" s="361"/>
+      <c r="M18" s="361"/>
+      <c r="N18" s="361"/>
+      <c r="O18" s="363"/>
+      <c r="Q18" s="514" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="477"/>
-      <c r="S18" s="479" t="s">
+      <c r="R18" s="515"/>
+      <c r="S18" s="369" t="s">
         <v>76</v>
       </c>
-      <c r="T18" s="479"/>
-      <c r="U18" s="479"/>
-      <c r="V18" s="479"/>
-      <c r="W18" s="482"/>
-      <c r="Y18" s="277" t="s">
+      <c r="T18" s="369"/>
+      <c r="U18" s="369"/>
+      <c r="V18" s="369"/>
+      <c r="W18" s="370"/>
+      <c r="Y18" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" s="278"/>
-      <c r="AA18" s="283" t="s">
+      <c r="Z18" s="325"/>
+      <c r="AA18" s="378" t="s">
         <v>83</v>
       </c>
-      <c r="AB18" s="283"/>
-      <c r="AC18" s="283"/>
-      <c r="AD18" s="283"/>
-      <c r="AE18" s="493"/>
-      <c r="AG18" s="277" t="s">
+      <c r="AB18" s="378"/>
+      <c r="AC18" s="378"/>
+      <c r="AD18" s="378"/>
+      <c r="AE18" s="379"/>
+      <c r="AG18" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="AH18" s="293" t="s">
+      <c r="AH18" s="285" t="s">
         <v>376</v>
       </c>
-      <c r="AI18" s="293"/>
-      <c r="AJ18" s="293"/>
-      <c r="AK18" s="293"/>
-      <c r="AL18" s="310"/>
-      <c r="AN18" s="277" t="s">
+      <c r="AI18" s="285"/>
+      <c r="AJ18" s="285"/>
+      <c r="AK18" s="285"/>
+      <c r="AL18" s="286"/>
+      <c r="AN18" s="324" t="s">
         <v>81</v>
       </c>
-      <c r="AO18" s="293" t="s">
+      <c r="AO18" s="285" t="s">
         <v>422</v>
       </c>
-      <c r="AP18" s="293"/>
-      <c r="AQ18" s="293"/>
-      <c r="AR18" s="293"/>
-      <c r="AS18" s="310"/>
-      <c r="AU18" s="308" t="s">
+      <c r="AP18" s="285"/>
+      <c r="AQ18" s="285"/>
+      <c r="AR18" s="285"/>
+      <c r="AS18" s="286"/>
+      <c r="AU18" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="AV18" s="375" t="s">
+      <c r="AV18" s="340" t="s">
         <v>369</v>
       </c>
-      <c r="AW18" s="375"/>
-      <c r="AX18" s="375"/>
-      <c r="AY18" s="375"/>
-      <c r="AZ18" s="416"/>
-      <c r="BB18" s="308" t="s">
+      <c r="AW18" s="340"/>
+      <c r="AX18" s="340"/>
+      <c r="AY18" s="340"/>
+      <c r="AZ18" s="341"/>
+      <c r="BB18" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="BC18" s="375" t="s">
+      <c r="BC18" s="340" t="s">
         <v>101</v>
       </c>
-      <c r="BD18" s="375"/>
-      <c r="BE18" s="375"/>
-      <c r="BF18" s="375"/>
-      <c r="BG18" s="416"/>
+      <c r="BD18" s="340"/>
+      <c r="BE18" s="340"/>
+      <c r="BF18" s="340"/>
+      <c r="BG18" s="341"/>
       <c r="BH18" s="4"/>
-      <c r="BI18" s="452" t="s">
+      <c r="BI18" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="BJ18" s="285" t="s">
+      <c r="BJ18" s="289" t="s">
         <v>371</v>
       </c>
-      <c r="BK18" s="285"/>
-      <c r="BL18" s="285"/>
-      <c r="BM18" s="285"/>
-      <c r="BN18" s="286"/>
-      <c r="BP18" s="277" t="s">
+      <c r="BK18" s="289"/>
+      <c r="BL18" s="289"/>
+      <c r="BM18" s="289"/>
+      <c r="BN18" s="290"/>
+      <c r="BP18" s="324" t="s">
         <v>86</v>
       </c>
-      <c r="BQ18" s="293" t="s">
+      <c r="BQ18" s="285" t="s">
         <v>286</v>
       </c>
-      <c r="BR18" s="293"/>
-      <c r="BS18" s="293"/>
-      <c r="BT18" s="293"/>
-      <c r="BU18" s="310"/>
-      <c r="BW18" s="440" t="s">
+      <c r="BR18" s="285"/>
+      <c r="BS18" s="285"/>
+      <c r="BT18" s="285"/>
+      <c r="BU18" s="286"/>
+      <c r="BW18" s="483" t="s">
         <v>108</v>
       </c>
-      <c r="BX18" s="419" t="s">
+      <c r="BX18" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="BY18" s="419"/>
-      <c r="BZ18" s="419"/>
-      <c r="CA18" s="419"/>
-      <c r="CB18" s="511" t="s">
+      <c r="BY18" s="293"/>
+      <c r="BZ18" s="293"/>
+      <c r="CA18" s="293"/>
+      <c r="CB18" s="268" t="s">
         <v>555</v>
       </c>
-      <c r="CE18" s="539" t="s">
+      <c r="CE18" s="482" t="s">
         <v>398</v>
       </c>
-      <c r="CF18" s="539"/>
-      <c r="CG18" s="539"/>
-      <c r="CH18" s="539"/>
-      <c r="CI18" s="539"/>
-      <c r="CJ18" s="539"/>
-      <c r="CK18" s="539"/>
-      <c r="CL18" s="539"/>
-      <c r="CM18" s="539"/>
-      <c r="CN18" s="539"/>
-      <c r="CO18" s="539"/>
-      <c r="CP18" s="539"/>
+      <c r="CF18" s="482"/>
+      <c r="CG18" s="482"/>
+      <c r="CH18" s="482"/>
+      <c r="CI18" s="482"/>
+      <c r="CJ18" s="482"/>
+      <c r="CK18" s="482"/>
+      <c r="CL18" s="482"/>
+      <c r="CM18" s="482"/>
+      <c r="CN18" s="482"/>
+      <c r="CO18" s="482"/>
+      <c r="CP18" s="482"/>
     </row>
-    <row r="19" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:94" ht="18" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="E19" s="33" t="s">
@@ -12941,321 +13007,321 @@
       <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="474"/>
-      <c r="I19" s="464"/>
-      <c r="J19" s="472"/>
-      <c r="K19" s="472"/>
-      <c r="L19" s="472"/>
-      <c r="M19" s="472"/>
-      <c r="N19" s="472"/>
-      <c r="O19" s="518"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="478"/>
-      <c r="S19" s="480"/>
-      <c r="T19" s="480"/>
-      <c r="U19" s="480"/>
-      <c r="V19" s="480"/>
-      <c r="W19" s="484"/>
-      <c r="Y19" s="301"/>
-      <c r="Z19" s="302"/>
-      <c r="AA19" s="490"/>
-      <c r="AB19" s="490"/>
-      <c r="AC19" s="490"/>
-      <c r="AD19" s="490"/>
-      <c r="AE19" s="494"/>
-      <c r="AG19" s="301"/>
-      <c r="AH19" s="422"/>
-      <c r="AI19" s="422"/>
-      <c r="AJ19" s="422"/>
-      <c r="AK19" s="422"/>
-      <c r="AL19" s="423"/>
-      <c r="AN19" s="301"/>
-      <c r="AO19" s="422"/>
-      <c r="AP19" s="422"/>
-      <c r="AQ19" s="422"/>
-      <c r="AR19" s="422"/>
-      <c r="AS19" s="423"/>
-      <c r="AU19" s="309"/>
-      <c r="AV19" s="417"/>
-      <c r="AW19" s="417"/>
-      <c r="AX19" s="417"/>
-      <c r="AY19" s="417"/>
-      <c r="AZ19" s="418"/>
-      <c r="BB19" s="309"/>
-      <c r="BC19" s="417"/>
-      <c r="BD19" s="417"/>
-      <c r="BE19" s="417"/>
-      <c r="BF19" s="417"/>
-      <c r="BG19" s="418"/>
+      <c r="H19" s="520"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="362"/>
+      <c r="L19" s="362"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="362"/>
+      <c r="O19" s="364"/>
+      <c r="Q19" s="516"/>
+      <c r="R19" s="517"/>
+      <c r="S19" s="371"/>
+      <c r="T19" s="371"/>
+      <c r="U19" s="371"/>
+      <c r="V19" s="371"/>
+      <c r="W19" s="372"/>
+      <c r="Y19" s="326"/>
+      <c r="Z19" s="327"/>
+      <c r="AA19" s="380"/>
+      <c r="AB19" s="380"/>
+      <c r="AC19" s="380"/>
+      <c r="AD19" s="380"/>
+      <c r="AE19" s="381"/>
+      <c r="AG19" s="326"/>
+      <c r="AH19" s="287"/>
+      <c r="AI19" s="287"/>
+      <c r="AJ19" s="287"/>
+      <c r="AK19" s="287"/>
+      <c r="AL19" s="288"/>
+      <c r="AN19" s="326"/>
+      <c r="AO19" s="287"/>
+      <c r="AP19" s="287"/>
+      <c r="AQ19" s="287"/>
+      <c r="AR19" s="287"/>
+      <c r="AS19" s="288"/>
+      <c r="AU19" s="382"/>
+      <c r="AV19" s="342"/>
+      <c r="AW19" s="342"/>
+      <c r="AX19" s="342"/>
+      <c r="AY19" s="342"/>
+      <c r="AZ19" s="343"/>
+      <c r="BB19" s="382"/>
+      <c r="BC19" s="342"/>
+      <c r="BD19" s="342"/>
+      <c r="BE19" s="342"/>
+      <c r="BF19" s="342"/>
+      <c r="BG19" s="343"/>
       <c r="BH19" s="4"/>
-      <c r="BI19" s="452"/>
-      <c r="BJ19" s="285"/>
-      <c r="BK19" s="285"/>
-      <c r="BL19" s="285"/>
-      <c r="BM19" s="285"/>
-      <c r="BN19" s="286"/>
-      <c r="BP19" s="301"/>
-      <c r="BQ19" s="422"/>
-      <c r="BR19" s="422"/>
-      <c r="BS19" s="422"/>
-      <c r="BT19" s="422"/>
-      <c r="BU19" s="423"/>
-      <c r="BW19" s="441"/>
-      <c r="BX19" s="420"/>
-      <c r="BY19" s="420"/>
-      <c r="BZ19" s="420"/>
-      <c r="CA19" s="420"/>
-      <c r="CB19" s="461"/>
+      <c r="BI19" s="317"/>
+      <c r="BJ19" s="289"/>
+      <c r="BK19" s="289"/>
+      <c r="BL19" s="289"/>
+      <c r="BM19" s="289"/>
+      <c r="BN19" s="290"/>
+      <c r="BP19" s="326"/>
+      <c r="BQ19" s="287"/>
+      <c r="BR19" s="287"/>
+      <c r="BS19" s="287"/>
+      <c r="BT19" s="287"/>
+      <c r="BU19" s="288"/>
+      <c r="BW19" s="484"/>
+      <c r="BX19" s="294"/>
+      <c r="BY19" s="294"/>
+      <c r="BZ19" s="294"/>
+      <c r="CA19" s="294"/>
+      <c r="CB19" s="253"/>
       <c r="CD19" s="49">
         <v>13</v>
       </c>
-      <c r="CE19" s="539"/>
-      <c r="CF19" s="539"/>
-      <c r="CG19" s="539"/>
-      <c r="CH19" s="539"/>
-      <c r="CI19" s="539"/>
-      <c r="CJ19" s="539"/>
-      <c r="CK19" s="539"/>
-      <c r="CL19" s="539"/>
-      <c r="CM19" s="539"/>
-      <c r="CN19" s="539"/>
-      <c r="CO19" s="539"/>
-      <c r="CP19" s="539"/>
+      <c r="CE19" s="482"/>
+      <c r="CF19" s="482"/>
+      <c r="CG19" s="482"/>
+      <c r="CH19" s="482"/>
+      <c r="CI19" s="482"/>
+      <c r="CJ19" s="482"/>
+      <c r="CK19" s="482"/>
+      <c r="CL19" s="482"/>
+      <c r="CM19" s="482"/>
+      <c r="CN19" s="482"/>
+      <c r="CO19" s="482"/>
+      <c r="CP19" s="482"/>
     </row>
-    <row r="20" spans="1:94" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:94" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="15"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="308" t="s">
+      <c r="H20" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="465"/>
-      <c r="J20" s="466" t="s">
+      <c r="I20" s="278"/>
+      <c r="J20" s="365" t="s">
         <v>427</v>
       </c>
-      <c r="K20" s="466"/>
-      <c r="L20" s="466"/>
-      <c r="M20" s="466"/>
-      <c r="N20" s="466"/>
-      <c r="O20" s="324" t="s">
+      <c r="K20" s="365"/>
+      <c r="L20" s="365"/>
+      <c r="M20" s="365"/>
+      <c r="N20" s="365"/>
+      <c r="O20" s="367" t="s">
         <v>399</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="485" t="s">
+      <c r="Q20" s="495" t="s">
         <v>274</v>
       </c>
-      <c r="R20" s="475"/>
-      <c r="S20" s="476" t="s">
+      <c r="R20" s="496"/>
+      <c r="S20" s="373" t="s">
         <v>429</v>
       </c>
-      <c r="T20" s="476"/>
-      <c r="U20" s="476"/>
-      <c r="V20" s="476"/>
-      <c r="W20" s="486"/>
+      <c r="T20" s="373"/>
+      <c r="U20" s="373"/>
+      <c r="V20" s="373"/>
+      <c r="W20" s="374"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="308" t="s">
+      <c r="Y20" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="Z20" s="465"/>
-      <c r="AA20" s="491" t="s">
+      <c r="Z20" s="278"/>
+      <c r="AA20" s="281" t="s">
         <v>62</v>
       </c>
-      <c r="AB20" s="491"/>
-      <c r="AC20" s="491"/>
-      <c r="AD20" s="491"/>
-      <c r="AE20" s="495"/>
+      <c r="AB20" s="281"/>
+      <c r="AC20" s="281"/>
+      <c r="AD20" s="281"/>
+      <c r="AE20" s="282"/>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="308" t="s">
+      <c r="AG20" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="AH20" s="491" t="s">
+      <c r="AH20" s="281" t="s">
         <v>63</v>
       </c>
-      <c r="AI20" s="491"/>
-      <c r="AJ20" s="491"/>
-      <c r="AK20" s="491"/>
-      <c r="AL20" s="495"/>
+      <c r="AI20" s="281"/>
+      <c r="AJ20" s="281"/>
+      <c r="AK20" s="281"/>
+      <c r="AL20" s="282"/>
       <c r="AM20" s="10"/>
-      <c r="AN20" s="277" t="s">
+      <c r="AN20" s="324" t="s">
         <v>37</v>
       </c>
-      <c r="AO20" s="293" t="s">
+      <c r="AO20" s="285" t="s">
         <v>423</v>
       </c>
-      <c r="AP20" s="293"/>
-      <c r="AQ20" s="293"/>
-      <c r="AR20" s="293"/>
-      <c r="AS20" s="310"/>
+      <c r="AP20" s="285"/>
+      <c r="AQ20" s="285"/>
+      <c r="AR20" s="285"/>
+      <c r="AS20" s="286"/>
       <c r="AT20" s="10"/>
-      <c r="AU20" s="308" t="s">
+      <c r="AU20" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="AV20" s="375" t="s">
+      <c r="AV20" s="340" t="s">
         <v>370</v>
       </c>
-      <c r="AW20" s="375"/>
-      <c r="AX20" s="375"/>
-      <c r="AY20" s="375"/>
-      <c r="AZ20" s="416"/>
+      <c r="AW20" s="340"/>
+      <c r="AX20" s="340"/>
+      <c r="AY20" s="340"/>
+      <c r="AZ20" s="341"/>
       <c r="BA20" s="10"/>
-      <c r="BB20" s="277" t="s">
+      <c r="BB20" s="324" t="s">
         <v>124</v>
       </c>
-      <c r="BC20" s="293" t="s">
+      <c r="BC20" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="BD20" s="293"/>
-      <c r="BE20" s="293"/>
-      <c r="BF20" s="293"/>
-      <c r="BG20" s="310"/>
-      <c r="BI20" s="452" t="s">
+      <c r="BD20" s="285"/>
+      <c r="BE20" s="285"/>
+      <c r="BF20" s="285"/>
+      <c r="BG20" s="286"/>
+      <c r="BI20" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="BJ20" s="285" t="s">
+      <c r="BJ20" s="289" t="s">
         <v>372</v>
       </c>
-      <c r="BK20" s="285"/>
-      <c r="BL20" s="285"/>
-      <c r="BM20" s="285"/>
-      <c r="BN20" s="286"/>
-      <c r="BP20" s="277" t="s">
+      <c r="BK20" s="289"/>
+      <c r="BL20" s="289"/>
+      <c r="BM20" s="289"/>
+      <c r="BN20" s="290"/>
+      <c r="BP20" s="324" t="s">
         <v>39</v>
       </c>
-      <c r="BQ20" s="293" t="s">
+      <c r="BQ20" s="285" t="s">
         <v>287</v>
       </c>
-      <c r="BR20" s="293"/>
-      <c r="BS20" s="293"/>
-      <c r="BT20" s="293"/>
-      <c r="BU20" s="310"/>
-      <c r="BW20" s="440" t="s">
+      <c r="BR20" s="285"/>
+      <c r="BS20" s="285"/>
+      <c r="BT20" s="285"/>
+      <c r="BU20" s="286"/>
+      <c r="BW20" s="483" t="s">
         <v>109</v>
       </c>
-      <c r="BX20" s="419" t="s">
+      <c r="BX20" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="BY20" s="419"/>
-      <c r="BZ20" s="419"/>
-      <c r="CA20" s="419"/>
-      <c r="CB20" s="512" t="s">
+      <c r="BY20" s="293"/>
+      <c r="BZ20" s="293"/>
+      <c r="CA20" s="293"/>
+      <c r="CB20" s="269" t="s">
         <v>556</v>
       </c>
       <c r="CD20" s="50">
         <v>14</v>
       </c>
-      <c r="CE20" s="539"/>
-      <c r="CF20" s="539"/>
-      <c r="CG20" s="539"/>
-      <c r="CH20" s="539"/>
-      <c r="CI20" s="539"/>
-      <c r="CJ20" s="539"/>
-      <c r="CK20" s="539"/>
-      <c r="CL20" s="539"/>
-      <c r="CM20" s="539"/>
-      <c r="CN20" s="539"/>
-      <c r="CO20" s="539"/>
-      <c r="CP20" s="539"/>
+      <c r="CE20" s="482"/>
+      <c r="CF20" s="482"/>
+      <c r="CG20" s="482"/>
+      <c r="CH20" s="482"/>
+      <c r="CI20" s="482"/>
+      <c r="CJ20" s="482"/>
+      <c r="CK20" s="482"/>
+      <c r="CL20" s="482"/>
+      <c r="CM20" s="482"/>
+      <c r="CN20" s="482"/>
+      <c r="CO20" s="482"/>
+      <c r="CP20" s="482"/>
     </row>
-    <row r="21" spans="1:94" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="15"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="313"/>
-      <c r="I21" s="515"/>
-      <c r="J21" s="516"/>
-      <c r="K21" s="516"/>
-      <c r="L21" s="516"/>
-      <c r="M21" s="516"/>
-      <c r="N21" s="516"/>
-      <c r="O21" s="325"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="366"/>
+      <c r="K21" s="366"/>
+      <c r="L21" s="366"/>
+      <c r="M21" s="366"/>
+      <c r="N21" s="366"/>
+      <c r="O21" s="368"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="487"/>
-      <c r="R21" s="533"/>
-      <c r="S21" s="488"/>
-      <c r="T21" s="488"/>
-      <c r="U21" s="488"/>
-      <c r="V21" s="488"/>
-      <c r="W21" s="489"/>
+      <c r="Q21" s="497"/>
+      <c r="R21" s="498"/>
+      <c r="S21" s="375"/>
+      <c r="T21" s="375"/>
+      <c r="U21" s="375"/>
+      <c r="V21" s="375"/>
+      <c r="W21" s="376"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="313"/>
-      <c r="Z21" s="515"/>
-      <c r="AA21" s="496"/>
-      <c r="AB21" s="496"/>
-      <c r="AC21" s="496"/>
-      <c r="AD21" s="496"/>
-      <c r="AE21" s="497"/>
+      <c r="Y21" s="279"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="283"/>
+      <c r="AB21" s="283"/>
+      <c r="AC21" s="283"/>
+      <c r="AD21" s="283"/>
+      <c r="AE21" s="284"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="313"/>
-      <c r="AH21" s="496"/>
-      <c r="AI21" s="496"/>
-      <c r="AJ21" s="496"/>
-      <c r="AK21" s="496"/>
-      <c r="AL21" s="497"/>
+      <c r="AG21" s="279"/>
+      <c r="AH21" s="283"/>
+      <c r="AI21" s="283"/>
+      <c r="AJ21" s="283"/>
+      <c r="AK21" s="283"/>
+      <c r="AL21" s="284"/>
       <c r="AM21" s="10"/>
-      <c r="AN21" s="279"/>
-      <c r="AO21" s="311"/>
-      <c r="AP21" s="311"/>
-      <c r="AQ21" s="311"/>
-      <c r="AR21" s="311"/>
-      <c r="AS21" s="312"/>
+      <c r="AN21" s="377"/>
+      <c r="AO21" s="359"/>
+      <c r="AP21" s="359"/>
+      <c r="AQ21" s="359"/>
+      <c r="AR21" s="359"/>
+      <c r="AS21" s="360"/>
       <c r="AT21" s="10"/>
-      <c r="AU21" s="313"/>
-      <c r="AV21" s="424"/>
-      <c r="AW21" s="424"/>
-      <c r="AX21" s="424"/>
-      <c r="AY21" s="424"/>
-      <c r="AZ21" s="425"/>
+      <c r="AU21" s="279"/>
+      <c r="AV21" s="383"/>
+      <c r="AW21" s="383"/>
+      <c r="AX21" s="383"/>
+      <c r="AY21" s="383"/>
+      <c r="AZ21" s="384"/>
       <c r="BA21" s="10"/>
-      <c r="BB21" s="279"/>
-      <c r="BC21" s="311"/>
-      <c r="BD21" s="311"/>
-      <c r="BE21" s="311"/>
-      <c r="BF21" s="311"/>
-      <c r="BG21" s="312"/>
-      <c r="BI21" s="454"/>
-      <c r="BJ21" s="287"/>
-      <c r="BK21" s="287"/>
-      <c r="BL21" s="287"/>
-      <c r="BM21" s="287"/>
-      <c r="BN21" s="288"/>
-      <c r="BP21" s="279"/>
-      <c r="BQ21" s="311"/>
-      <c r="BR21" s="311"/>
-      <c r="BS21" s="311"/>
-      <c r="BT21" s="311"/>
-      <c r="BU21" s="312"/>
-      <c r="BW21" s="442"/>
-      <c r="BX21" s="421"/>
-      <c r="BY21" s="421"/>
-      <c r="BZ21" s="421"/>
-      <c r="CA21" s="421"/>
-      <c r="CB21" s="462"/>
+      <c r="BB21" s="377"/>
+      <c r="BC21" s="359"/>
+      <c r="BD21" s="359"/>
+      <c r="BE21" s="359"/>
+      <c r="BF21" s="359"/>
+      <c r="BG21" s="360"/>
+      <c r="BI21" s="319"/>
+      <c r="BJ21" s="291"/>
+      <c r="BK21" s="291"/>
+      <c r="BL21" s="291"/>
+      <c r="BM21" s="291"/>
+      <c r="BN21" s="292"/>
+      <c r="BP21" s="377"/>
+      <c r="BQ21" s="359"/>
+      <c r="BR21" s="359"/>
+      <c r="BS21" s="359"/>
+      <c r="BT21" s="359"/>
+      <c r="BU21" s="360"/>
+      <c r="BW21" s="485"/>
+      <c r="BX21" s="295"/>
+      <c r="BY21" s="295"/>
+      <c r="BZ21" s="295"/>
+      <c r="CA21" s="295"/>
+      <c r="CB21" s="254"/>
       <c r="CD21" s="37">
         <v>15</v>
       </c>
-      <c r="CE21" s="539"/>
-      <c r="CF21" s="539"/>
-      <c r="CG21" s="539"/>
-      <c r="CH21" s="539"/>
-      <c r="CI21" s="539"/>
-      <c r="CJ21" s="539"/>
-      <c r="CK21" s="539"/>
-      <c r="CL21" s="539"/>
-      <c r="CM21" s="539"/>
-      <c r="CN21" s="539"/>
-      <c r="CO21" s="539"/>
-      <c r="CP21" s="539"/>
+      <c r="CE21" s="482"/>
+      <c r="CF21" s="482"/>
+      <c r="CG21" s="482"/>
+      <c r="CH21" s="482"/>
+      <c r="CI21" s="482"/>
+      <c r="CJ21" s="482"/>
+      <c r="CK21" s="482"/>
+      <c r="CL21" s="482"/>
+      <c r="CM21" s="482"/>
+      <c r="CN21" s="482"/>
+      <c r="CO21" s="482"/>
+      <c r="CP21" s="482"/>
     </row>
-    <row r="22" spans="1:94" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="245" t="s">
+    <row r="22" spans="1:94" ht="18.95" customHeight="1">
+      <c r="A22" s="244" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="51"/>
-      <c r="C22" s="246"/>
+      <c r="C22" s="245"/>
       <c r="D22" s="52"/>
       <c r="H22" s="46">
         <v>16</v>
@@ -13265,12 +13331,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:94" ht="18" customHeight="1">
       <c r="A23" s="113"/>
-      <c r="B23" s="259" t="s">
+      <c r="B23" s="527" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="259"/>
+      <c r="C23" s="527"/>
       <c r="D23" s="4"/>
       <c r="E23" s="51" t="s">
         <v>341</v>
@@ -13285,27 +13351,27 @@
       <c r="M23" s="51"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="231"/>
-      <c r="R23" s="231"/>
-      <c r="S23" s="231"/>
-      <c r="T23" s="231"/>
-      <c r="U23" s="231"/>
-      <c r="V23" s="231"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="230"/>
+      <c r="R23" s="230"/>
+      <c r="S23" s="230"/>
+      <c r="T23" s="230"/>
+      <c r="U23" s="230"/>
+      <c r="V23" s="230"/>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
       <c r="Z23" s="52"/>
-      <c r="AA23" s="268" t="s">
+      <c r="AA23" s="535" t="s">
         <v>334</v>
       </c>
-      <c r="AB23" s="269"/>
-      <c r="AC23" s="269"/>
-      <c r="AD23" s="269"/>
-      <c r="AE23" s="269"/>
-      <c r="AF23" s="269"/>
-      <c r="AG23" s="269"/>
-      <c r="AH23" s="166" t="s">
+      <c r="AB23" s="486"/>
+      <c r="AC23" s="486"/>
+      <c r="AD23" s="486"/>
+      <c r="AE23" s="486"/>
+      <c r="AF23" s="486"/>
+      <c r="AG23" s="486"/>
+      <c r="AH23" s="165" t="s">
         <v>539</v>
       </c>
       <c r="AI23" s="51"/>
@@ -13318,16 +13384,16 @@
       <c r="AN23" s="51"/>
       <c r="AO23" s="51"/>
       <c r="AP23" s="51"/>
-      <c r="AQ23" s="248"/>
-      <c r="AR23" s="183"/>
-      <c r="AS23" s="183"/>
-      <c r="AT23" s="183"/>
-      <c r="AU23" s="183"/>
-      <c r="AV23" s="183"/>
-      <c r="AW23" s="183"/>
+      <c r="AQ23" s="247"/>
+      <c r="AR23" s="182"/>
+      <c r="AS23" s="182"/>
+      <c r="AT23" s="182"/>
+      <c r="AU23" s="182"/>
+      <c r="AV23" s="182"/>
+      <c r="AW23" s="182"/>
       <c r="AX23" s="51"/>
       <c r="AY23" s="51"/>
-      <c r="AZ23" s="166"/>
+      <c r="AZ23" s="165"/>
       <c r="BA23" s="51"/>
       <c r="BB23" s="51"/>
       <c r="BC23" s="51"/>
@@ -13340,11 +13406,11 @@
       <c r="BJ23" s="51"/>
       <c r="BK23" s="51"/>
       <c r="BL23" s="52"/>
-      <c r="BM23" s="203"/>
-      <c r="BN23" s="165" t="s">
+      <c r="BM23" s="202"/>
+      <c r="BN23" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="BO23" s="166" t="s">
+      <c r="BO23" s="165" t="s">
         <v>271</v>
       </c>
       <c r="BP23" s="51"/>
@@ -13356,35 +13422,35 @@
       <c r="BV23" s="51"/>
       <c r="BW23" s="51"/>
       <c r="BX23" s="51"/>
-      <c r="BY23" s="205" t="s">
+      <c r="BY23" s="204" t="s">
         <v>351</v>
       </c>
-      <c r="BZ23" s="205"/>
-      <c r="CA23" s="205"/>
-      <c r="CB23" s="205"/>
-      <c r="CC23" s="205"/>
-      <c r="CD23" s="205"/>
-      <c r="CE23" s="206"/>
+      <c r="BZ23" s="204"/>
+      <c r="CA23" s="204"/>
+      <c r="CB23" s="204"/>
+      <c r="CC23" s="204"/>
+      <c r="CD23" s="204"/>
+      <c r="CE23" s="205"/>
       <c r="CF23" s="51"/>
-      <c r="CG23" s="269" t="s">
+      <c r="CG23" s="486" t="s">
         <v>415</v>
       </c>
-      <c r="CH23" s="269"/>
-      <c r="CI23" s="269"/>
-      <c r="CJ23" s="269"/>
-      <c r="CK23" s="269"/>
-      <c r="CL23" s="269"/>
-      <c r="CM23" s="269"/>
-      <c r="CN23" s="269"/>
-      <c r="CO23" s="269"/>
-      <c r="CP23" s="316"/>
+      <c r="CH23" s="486"/>
+      <c r="CI23" s="486"/>
+      <c r="CJ23" s="486"/>
+      <c r="CK23" s="486"/>
+      <c r="CL23" s="486"/>
+      <c r="CM23" s="486"/>
+      <c r="CN23" s="486"/>
+      <c r="CO23" s="486"/>
+      <c r="CP23" s="487"/>
     </row>
-    <row r="24" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:94" ht="18" customHeight="1">
       <c r="A24" s="113"/>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="532" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="532"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>353</v>
@@ -13409,7 +13475,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="199"/>
+      <c r="Z24" s="198"/>
       <c r="AA24" s="113"/>
       <c r="AB24" s="3" t="s">
         <v>118</v>
@@ -13430,7 +13496,7 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
-      <c r="AP24" s="169" t="s">
+      <c r="AP24" s="168" t="s">
         <v>347</v>
       </c>
       <c r="AQ24" s="56"/>
@@ -13447,7 +13513,7 @@
         <v>520</v>
       </c>
       <c r="BO24" s="4"/>
-      <c r="BP24" s="167" t="s">
+      <c r="BP24" s="166" t="s">
         <v>309</v>
       </c>
       <c r="BQ24" s="4"/>
@@ -13480,12 +13546,12 @@
       <c r="CO24" s="4"/>
       <c r="CP24" s="56"/>
     </row>
-    <row r="25" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:94" ht="18" customHeight="1">
       <c r="A25" s="113"/>
-      <c r="B25" s="260" t="s">
+      <c r="B25" s="528" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="260"/>
+      <c r="C25" s="528"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -13496,8 +13562,8 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="232"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -13510,7 +13576,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="199"/>
+      <c r="Z25" s="198"/>
       <c r="AA25" s="113"/>
       <c r="AB25" s="3" t="s">
         <v>120</v>
@@ -13519,7 +13585,7 @@
         <v>107</v>
       </c>
       <c r="AD25" s="4"/>
-      <c r="AF25" s="167"/>
+      <c r="AF25" s="166"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="3" t="s">
         <v>121</v>
@@ -13565,11 +13631,11 @@
       <c r="CE25" s="4"/>
       <c r="CF25" s="56"/>
       <c r="CG25" s="4"/>
-      <c r="CH25" s="319" t="s">
+      <c r="CH25" s="490" t="s">
         <v>122</v>
       </c>
-      <c r="CI25" s="319"/>
-      <c r="CJ25" s="319"/>
+      <c r="CI25" s="490"/>
+      <c r="CJ25" s="490"/>
       <c r="CK25" s="4" t="s">
         <v>331</v>
       </c>
@@ -13579,12 +13645,12 @@
       <c r="CO25" s="4"/>
       <c r="CP25" s="56"/>
     </row>
-    <row r="26" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:94" ht="18" customHeight="1">
       <c r="A26" s="113"/>
-      <c r="B26" s="263" t="s">
+      <c r="B26" s="530" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="263"/>
+      <c r="C26" s="530"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>278</v>
@@ -13609,7 +13675,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
-      <c r="Z26" s="199"/>
+      <c r="Z26" s="198"/>
       <c r="AA26" s="113"/>
       <c r="AB26" s="3" t="s">
         <v>531</v>
@@ -13632,7 +13698,7 @@
       <c r="AS26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AV26" s="184" t="s">
+      <c r="AV26" s="183" t="s">
         <v>281</v>
       </c>
       <c r="AW26" s="40"/>
@@ -13687,12 +13753,12 @@
       <c r="CO26" s="4"/>
       <c r="CP26" s="56"/>
     </row>
-    <row r="27" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:94" ht="18" customHeight="1">
       <c r="A27" s="113"/>
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="531" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="264"/>
+      <c r="C27" s="531"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>426</v>
@@ -13717,7 +13783,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="199"/>
+      <c r="Z27" s="198"/>
       <c r="AA27" s="113"/>
       <c r="AB27" s="3" t="s">
         <v>452</v>
@@ -13727,17 +13793,17 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="266" t="s">
+      <c r="AH27" s="533" t="s">
         <v>461</v>
       </c>
-      <c r="AI27" s="266"/>
-      <c r="AJ27" s="266"/>
-      <c r="AK27" s="266"/>
-      <c r="AL27" s="266"/>
-      <c r="AM27" s="266"/>
-      <c r="AN27" s="266"/>
-      <c r="AO27" s="266"/>
-      <c r="AP27" s="266"/>
+      <c r="AI27" s="533"/>
+      <c r="AJ27" s="533"/>
+      <c r="AK27" s="533"/>
+      <c r="AL27" s="533"/>
+      <c r="AM27" s="533"/>
+      <c r="AN27" s="533"/>
+      <c r="AO27" s="533"/>
+      <c r="AP27" s="533"/>
       <c r="AQ27" s="56"/>
       <c r="AS27" s="3" t="s">
         <v>250</v>
@@ -13754,7 +13820,7 @@
         <v>1</v>
       </c>
       <c r="BO27" s="4"/>
-      <c r="BP27" s="167" t="s">
+      <c r="BP27" s="166" t="s">
         <v>132</v>
       </c>
       <c r="BQ27" s="4"/>
@@ -13788,12 +13854,12 @@
       <c r="CO27" s="4"/>
       <c r="CP27" s="56"/>
     </row>
-    <row r="28" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:94" ht="18" customHeight="1">
       <c r="A28" s="113"/>
-      <c r="B28" s="328" t="s">
+      <c r="B28" s="470" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="328"/>
+      <c r="C28" s="470"/>
       <c r="D28" s="4"/>
       <c r="E28" s="22" t="s">
         <v>436</v>
@@ -13818,7 +13884,7 @@
       <c r="W28" s="22"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="199"/>
+      <c r="Z28" s="198"/>
       <c r="AA28" s="113"/>
       <c r="AB28" s="3" t="s">
         <v>443</v>
@@ -13864,7 +13930,7 @@
       <c r="BV28" s="4"/>
       <c r="BW28" s="4"/>
       <c r="BX28" s="4"/>
-      <c r="BZ28" s="208" t="s">
+      <c r="BZ28" s="207" t="s">
         <v>316</v>
       </c>
       <c r="CA28" s="4" t="s">
@@ -13890,12 +13956,12 @@
       <c r="CO28" s="4"/>
       <c r="CP28" s="56"/>
     </row>
-    <row r="29" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:94" ht="18" customHeight="1">
       <c r="A29" s="113"/>
-      <c r="B29" s="327" t="s">
+      <c r="B29" s="469" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="327"/>
+      <c r="C29" s="469"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>409</v>
@@ -13920,14 +13986,14 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="188"/>
-      <c r="AC29" s="188"/>
-      <c r="AD29" s="188"/>
-      <c r="AE29" s="188"/>
-      <c r="AF29" s="188"/>
-      <c r="AG29" s="188"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="187"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="26"/>
@@ -13937,7 +14003,7 @@
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
-      <c r="AQ29" s="199"/>
+      <c r="AQ29" s="198"/>
       <c r="AR29"/>
       <c r="AS29"/>
       <c r="AT29"/>
@@ -13954,7 +14020,7 @@
         <v>2</v>
       </c>
       <c r="BO29" s="4"/>
-      <c r="BP29" s="167" t="s">
+      <c r="BP29" s="166" t="s">
         <v>357</v>
       </c>
       <c r="BQ29" s="4"/>
@@ -13988,12 +14054,12 @@
       <c r="CO29" s="4"/>
       <c r="CP29" s="56"/>
     </row>
-    <row r="30" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:94" ht="18" customHeight="1">
       <c r="A30" s="113"/>
-      <c r="B30" s="255" t="s">
+      <c r="B30" s="523" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="255"/>
+      <c r="C30" s="523"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>388</v>
@@ -14018,11 +14084,11 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="199"/>
-      <c r="AA30" s="189" t="s">
+      <c r="Z30" s="198"/>
+      <c r="AA30" s="188" t="s">
         <v>444</v>
       </c>
-      <c r="AB30" s="163" t="s">
+      <c r="AB30" s="162" t="s">
         <v>10</v>
       </c>
       <c r="AC30" s="8" t="s">
@@ -14033,17 +14099,17 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="159"/>
+      <c r="AI30" s="158"/>
       <c r="AJ30" s="4"/>
-      <c r="AK30" s="160" t="s">
+      <c r="AK30" s="159" t="s">
         <v>448</v>
       </c>
-      <c r="AL30" s="160"/>
+      <c r="AL30" s="159"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
-      <c r="AQ30" s="199"/>
+      <c r="AQ30" s="198"/>
       <c r="AR30"/>
       <c r="AS30"/>
       <c r="AT30"/>
@@ -14094,14 +14160,14 @@
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-      <c r="CP30" s="178"/>
+      <c r="CP30" s="177"/>
     </row>
-    <row r="31" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:94" ht="18" customHeight="1">
       <c r="A31" s="113"/>
-      <c r="B31" s="326" t="s">
+      <c r="B31" s="468" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="326"/>
+      <c r="C31" s="468"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>181</v>
@@ -14126,11 +14192,11 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="189" t="s">
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="188" t="s">
         <v>445</v>
       </c>
-      <c r="AB31" s="163">
+      <c r="AB31" s="162">
         <v>0</v>
       </c>
       <c r="AC31" s="8" t="s">
@@ -14143,38 +14209,38 @@
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
-      <c r="AK31" s="161" t="s">
+      <c r="AK31" s="160" t="s">
         <v>449</v>
       </c>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="160"/>
-      <c r="AN31" s="160"/>
-      <c r="AO31" s="160"/>
-      <c r="AP31" s="160"/>
+      <c r="AM31" s="159"/>
+      <c r="AN31" s="159"/>
+      <c r="AO31" s="159"/>
+      <c r="AP31" s="159"/>
       <c r="AQ31" s="56"/>
       <c r="AS31" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AU31" s="221" t="s">
+      <c r="AU31" s="220" t="s">
         <v>243</v>
       </c>
-      <c r="AV31" s="222"/>
-      <c r="AW31" s="222"/>
-      <c r="AY31" s="262" t="s">
+      <c r="AV31" s="221"/>
+      <c r="AW31" s="221"/>
+      <c r="AY31" s="333" t="s">
         <v>498</v>
       </c>
-      <c r="AZ31" s="262"/>
-      <c r="BA31" s="262"/>
-      <c r="BB31" s="262"/>
-      <c r="BC31" s="262"/>
-      <c r="BD31" s="262"/>
-      <c r="BE31" s="262"/>
-      <c r="BF31" s="262"/>
-      <c r="BG31" s="262"/>
-      <c r="BH31" s="262"/>
-      <c r="BI31" s="262"/>
-      <c r="BJ31" s="262"/>
-      <c r="BK31" s="262"/>
+      <c r="AZ31" s="333"/>
+      <c r="BA31" s="333"/>
+      <c r="BB31" s="333"/>
+      <c r="BC31" s="333"/>
+      <c r="BD31" s="333"/>
+      <c r="BE31" s="333"/>
+      <c r="BF31" s="333"/>
+      <c r="BG31" s="333"/>
+      <c r="BH31" s="333"/>
+      <c r="BI31" s="333"/>
+      <c r="BJ31" s="333"/>
+      <c r="BK31" s="333"/>
       <c r="BL31"/>
       <c r="BM31" s="113"/>
       <c r="BN31" s="5"/>
@@ -14183,7 +14249,7 @@
         <v>304</v>
       </c>
       <c r="BQ31" s="4"/>
-      <c r="BR31" s="168" t="s">
+      <c r="BR31" s="167" t="s">
         <v>305</v>
       </c>
       <c r="BS31" s="4"/>
@@ -14214,14 +14280,14 @@
       <c r="CM31" s="4"/>
       <c r="CN31" s="4"/>
       <c r="CO31" s="4"/>
-      <c r="CP31" s="178"/>
+      <c r="CP31" s="177"/>
     </row>
-    <row r="32" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:94" ht="18" customHeight="1">
       <c r="A32" s="113"/>
-      <c r="B32" s="261" t="s">
+      <c r="B32" s="529" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="261"/>
+      <c r="C32" s="529"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>205</v>
@@ -14232,25 +14298,25 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="267" t="s">
+      <c r="L32" s="534" t="s">
         <v>468</v>
       </c>
-      <c r="M32" s="267"/>
-      <c r="N32" s="267"/>
-      <c r="O32" s="267"/>
-      <c r="P32" s="267"/>
-      <c r="Q32" s="267"/>
-      <c r="R32" s="267"/>
-      <c r="S32" s="267"/>
-      <c r="T32" s="267"/>
-      <c r="U32" s="267"/>
-      <c r="V32" s="267"/>
-      <c r="W32" s="267"/>
+      <c r="M32" s="534"/>
+      <c r="N32" s="534"/>
+      <c r="O32" s="534"/>
+      <c r="P32" s="534"/>
+      <c r="Q32" s="534"/>
+      <c r="R32" s="534"/>
+      <c r="S32" s="534"/>
+      <c r="T32" s="534"/>
+      <c r="U32" s="534"/>
+      <c r="V32" s="534"/>
+      <c r="W32" s="534"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="199"/>
+      <c r="Z32" s="198"/>
       <c r="AA32" s="113"/>
-      <c r="AB32" s="163" t="s">
+      <c r="AB32" s="162" t="s">
         <v>8</v>
       </c>
       <c r="AC32" s="8" t="s">
@@ -14273,26 +14339,26 @@
       <c r="AS32" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AU32" s="221" t="s">
+      <c r="AU32" s="220" t="s">
         <v>244</v>
       </c>
-      <c r="AV32" s="222"/>
-      <c r="AW32" s="222"/>
-      <c r="AY32" s="262" t="s">
+      <c r="AV32" s="221"/>
+      <c r="AW32" s="221"/>
+      <c r="AY32" s="333" t="s">
         <v>378</v>
       </c>
-      <c r="AZ32" s="262"/>
-      <c r="BA32" s="262"/>
-      <c r="BB32" s="262"/>
-      <c r="BC32" s="262"/>
-      <c r="BD32" s="262"/>
-      <c r="BE32" s="262"/>
-      <c r="BF32" s="262"/>
-      <c r="BG32" s="262"/>
-      <c r="BH32" s="262"/>
-      <c r="BI32" s="262"/>
-      <c r="BJ32" s="262"/>
-      <c r="BK32" s="262"/>
+      <c r="AZ32" s="333"/>
+      <c r="BA32" s="333"/>
+      <c r="BB32" s="333"/>
+      <c r="BC32" s="333"/>
+      <c r="BD32" s="333"/>
+      <c r="BE32" s="333"/>
+      <c r="BF32" s="333"/>
+      <c r="BG32" s="333"/>
+      <c r="BH32" s="333"/>
+      <c r="BI32" s="333"/>
+      <c r="BJ32" s="333"/>
+      <c r="BK32" s="333"/>
       <c r="BL32"/>
       <c r="BM32" s="113"/>
       <c r="BN32" s="6">
@@ -14329,18 +14395,18 @@
       <c r="CK32" s="4"/>
       <c r="CL32" s="4"/>
       <c r="CM32" s="4"/>
-      <c r="CN32" s="170"/>
+      <c r="CN32" s="169"/>
       <c r="CO32" s="4"/>
-      <c r="CP32" s="169" t="s">
+      <c r="CP32" s="168" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="257" t="s">
+    <row r="33" spans="1:94" ht="18" customHeight="1">
+      <c r="A33" s="525" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="258"/>
-      <c r="C33" s="258"/>
+      <c r="B33" s="526"/>
+      <c r="C33" s="526"/>
       <c r="D33" s="4"/>
       <c r="E33" s="3" t="s">
         <v>322</v>
@@ -14365,9 +14431,9 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="199"/>
+      <c r="Z33" s="198"/>
       <c r="AA33" s="113"/>
-      <c r="AB33" s="163" t="s">
+      <c r="AB33" s="162" t="s">
         <v>131</v>
       </c>
       <c r="AC33" s="4" t="s">
@@ -14389,7 +14455,7 @@
       <c r="AM33" s="60"/>
       <c r="AN33" s="60"/>
       <c r="AO33" s="60"/>
-      <c r="AP33" s="162"/>
+      <c r="AP33" s="161"/>
       <c r="AQ33" s="56"/>
       <c r="AS33" s="3" t="s">
         <v>222</v>
@@ -14407,7 +14473,7 @@
         <v>146</v>
       </c>
       <c r="BQ33" s="4"/>
-      <c r="BR33" s="171" t="s">
+      <c r="BR33" s="170" t="s">
         <v>147</v>
       </c>
       <c r="BS33" s="4"/>
@@ -14419,62 +14485,62 @@
       <c r="BZ33" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="CA33" s="207" t="s">
+      <c r="CA33" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="CB33" s="207"/>
-      <c r="CC33" s="207"/>
-      <c r="CD33" s="207"/>
-      <c r="CE33" s="207"/>
+      <c r="CB33" s="206"/>
+      <c r="CC33" s="206"/>
+      <c r="CD33" s="206"/>
+      <c r="CE33" s="206"/>
       <c r="CF33" s="4"/>
-      <c r="CG33" s="317" t="s">
+      <c r="CG33" s="488" t="s">
         <v>318</v>
       </c>
-      <c r="CH33" s="317"/>
-      <c r="CI33" s="317"/>
-      <c r="CJ33" s="317"/>
-      <c r="CK33" s="317"/>
-      <c r="CL33" s="317"/>
-      <c r="CM33" s="317"/>
-      <c r="CN33" s="317"/>
-      <c r="CO33" s="317"/>
-      <c r="CP33" s="318"/>
+      <c r="CH33" s="488"/>
+      <c r="CI33" s="488"/>
+      <c r="CJ33" s="488"/>
+      <c r="CK33" s="488"/>
+      <c r="CL33" s="488"/>
+      <c r="CM33" s="488"/>
+      <c r="CN33" s="488"/>
+      <c r="CO33" s="488"/>
+      <c r="CP33" s="489"/>
     </row>
-    <row r="34" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:94" ht="18" customHeight="1">
       <c r="A34" s="113"/>
-      <c r="B34" s="233" t="s">
+      <c r="B34" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171" t="s">
+      <c r="C34" s="232"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="171"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="234" t="s">
+      <c r="L34" s="233" t="s">
         <v>431</v>
       </c>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="234"/>
-      <c r="T34" s="234"/>
+      <c r="M34" s="233"/>
+      <c r="N34" s="233"/>
+      <c r="O34" s="233"/>
+      <c r="P34" s="233"/>
+      <c r="Q34" s="233"/>
+      <c r="R34" s="233"/>
+      <c r="S34" s="233"/>
+      <c r="T34" s="233"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="16"/>
-      <c r="Z34" s="199"/>
+      <c r="Z34" s="198"/>
       <c r="AA34" s="113"/>
-      <c r="AB34" s="163" t="s">
+      <c r="AB34" s="162" t="s">
         <v>246</v>
       </c>
       <c r="AC34" s="4" t="s">
@@ -14486,7 +14552,7 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
-      <c r="AJ34" s="163" t="s">
+      <c r="AJ34" s="162" t="s">
         <v>247</v>
       </c>
       <c r="AK34" s="4" t="s">
@@ -14514,7 +14580,7 @@
         <v>150</v>
       </c>
       <c r="BQ34" s="4"/>
-      <c r="BR34" s="172" t="s">
+      <c r="BR34" s="171" t="s">
         <v>340</v>
       </c>
       <c r="BS34" s="4"/>
@@ -14544,41 +14610,41 @@
       <c r="CO34" s="4"/>
       <c r="CP34" s="56"/>
     </row>
-    <row r="35" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="235"/>
-      <c r="B35" s="233" t="s">
+    <row r="35" spans="1:94" ht="18" customHeight="1">
+      <c r="A35" s="234"/>
+      <c r="B35" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="233"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="207" t="s">
+      <c r="C35" s="232"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="206" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="236"/>
-      <c r="G35" s="236"/>
-      <c r="H35" s="236"/>
-      <c r="I35" s="236"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="236"/>
-      <c r="L35" s="234" t="s">
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="M35" s="234"/>
-      <c r="N35" s="234"/>
-      <c r="O35" s="234"/>
-      <c r="P35" s="234"/>
-      <c r="Q35" s="234"/>
-      <c r="R35" s="234"/>
-      <c r="S35" s="234"/>
-      <c r="T35" s="234"/>
+      <c r="M35" s="233"/>
+      <c r="N35" s="233"/>
+      <c r="O35" s="233"/>
+      <c r="P35" s="233"/>
+      <c r="Q35" s="233"/>
+      <c r="R35" s="233"/>
+      <c r="S35" s="233"/>
+      <c r="T35" s="233"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="16"/>
-      <c r="Z35" s="199"/>
+      <c r="Z35" s="198"/>
       <c r="AA35" s="113"/>
-      <c r="AB35" s="163" t="s">
+      <c r="AB35" s="162" t="s">
         <v>239</v>
       </c>
       <c r="AC35" s="4" t="s">
@@ -14590,7 +14656,7 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
-      <c r="AJ35" s="163" t="s">
+      <c r="AJ35" s="162" t="s">
         <v>240</v>
       </c>
       <c r="AK35" s="4" t="s">
@@ -14601,7 +14667,7 @@
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
-      <c r="AQ35" s="200"/>
+      <c r="AQ35" s="199"/>
       <c r="BF35" s="133"/>
       <c r="BL35"/>
       <c r="BM35" s="113"/>
@@ -14611,7 +14677,7 @@
         <v>335</v>
       </c>
       <c r="BQ35" s="4"/>
-      <c r="BR35" s="172" t="s">
+      <c r="BR35" s="171" t="s">
         <v>336</v>
       </c>
       <c r="BS35" s="4"/>
@@ -14623,7 +14689,7 @@
       <c r="BZ35" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="CA35" s="172" t="s">
+      <c r="CA35" s="171" t="s">
         <v>338</v>
       </c>
       <c r="CB35" s="4"/>
@@ -14640,7 +14706,7 @@
       <c r="CK35" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="CL35" s="159" t="s">
+      <c r="CL35" s="158" t="s">
         <v>276</v>
       </c>
       <c r="CM35" s="4"/>
@@ -14648,41 +14714,41 @@
       <c r="CO35" s="4"/>
       <c r="CP35" s="56"/>
     </row>
-    <row r="36" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="235"/>
-      <c r="B36" s="233" t="s">
+    <row r="36" spans="1:94" ht="18" customHeight="1">
+      <c r="A36" s="234"/>
+      <c r="B36" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171" t="s">
+      <c r="C36" s="232"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="171"/>
+      <c r="F36" s="170"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="234" t="s">
+      <c r="L36" s="233" t="s">
         <v>430</v>
       </c>
-      <c r="M36" s="234"/>
-      <c r="N36" s="232"/>
-      <c r="O36" s="232"/>
-      <c r="P36" s="232"/>
-      <c r="Q36" s="232"/>
-      <c r="R36" s="232"/>
-      <c r="S36" s="232"/>
-      <c r="T36" s="232"/>
+      <c r="M36" s="233"/>
+      <c r="N36" s="231"/>
+      <c r="O36" s="231"/>
+      <c r="P36" s="231"/>
+      <c r="Q36" s="231"/>
+      <c r="R36" s="231"/>
+      <c r="S36" s="231"/>
+      <c r="T36" s="231"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="16"/>
-      <c r="Z36" s="199"/>
+      <c r="Z36" s="198"/>
       <c r="AA36" s="113"/>
-      <c r="AB36" s="163" t="s">
+      <c r="AB36" s="162" t="s">
         <v>248</v>
       </c>
       <c r="AC36" s="4" t="s">
@@ -14694,7 +14760,7 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
-      <c r="AJ36" s="163" t="s">
+      <c r="AJ36" s="162" t="s">
         <v>249</v>
       </c>
       <c r="AK36" s="4" t="s">
@@ -14729,7 +14795,7 @@
         <v>149</v>
       </c>
       <c r="BQ36" s="4"/>
-      <c r="BR36" s="171" t="s">
+      <c r="BR36" s="170" t="s">
         <v>152</v>
       </c>
       <c r="BS36" s="4"/>
@@ -14741,7 +14807,7 @@
       <c r="BZ36" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="CA36" s="171" t="s">
+      <c r="CA36" s="170" t="s">
         <v>153</v>
       </c>
       <c r="CB36" s="4"/>
@@ -14758,43 +14824,43 @@
       <c r="CM36" s="117"/>
       <c r="CN36" s="117"/>
       <c r="CO36" s="117"/>
-      <c r="CP36" s="179"/>
+      <c r="CP36" s="178"/>
     </row>
-    <row r="37" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:94" ht="18" customHeight="1">
       <c r="A37" s="113"/>
-      <c r="B37" s="233" t="s">
+      <c r="B37" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171" t="s">
+      <c r="C37" s="232"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="171"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="234" t="s">
+      <c r="L37" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="M37" s="234"/>
-      <c r="N37" s="234"/>
-      <c r="O37" s="234"/>
-      <c r="P37" s="234"/>
-      <c r="Q37" s="234"/>
-      <c r="R37" s="234"/>
-      <c r="S37" s="234"/>
-      <c r="T37" s="234"/>
+      <c r="M37" s="233"/>
+      <c r="N37" s="233"/>
+      <c r="O37" s="233"/>
+      <c r="P37" s="233"/>
+      <c r="Q37" s="233"/>
+      <c r="R37" s="233"/>
+      <c r="S37" s="233"/>
+      <c r="T37" s="233"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="199"/>
+      <c r="Z37" s="198"/>
       <c r="AA37" s="113"/>
-      <c r="AB37" s="163" t="s">
+      <c r="AB37" s="162" t="s">
         <v>263</v>
       </c>
       <c r="AC37" s="4" t="s">
@@ -14806,7 +14872,7 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="163" t="s">
+      <c r="AJ37" s="162" t="s">
         <v>264</v>
       </c>
       <c r="AK37" s="4" t="s">
@@ -14817,7 +14883,7 @@
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
-      <c r="AQ37" s="199"/>
+      <c r="AQ37" s="198"/>
       <c r="AS37" s="3" t="s">
         <v>234</v>
       </c>
@@ -14828,7 +14894,7 @@
         <v>494</v>
       </c>
       <c r="BL37"/>
-      <c r="BM37" s="185"/>
+      <c r="BM37" s="184"/>
       <c r="BN37" s="48" t="s">
         <v>521</v>
       </c>
@@ -14837,7 +14903,7 @@
         <v>154</v>
       </c>
       <c r="BQ37" s="4"/>
-      <c r="BR37" s="171" t="s">
+      <c r="BR37" s="170" t="s">
         <v>155</v>
       </c>
       <c r="BS37" s="4"/>
@@ -14863,43 +14929,43 @@
       <c r="CM37" s="117"/>
       <c r="CN37" s="117"/>
       <c r="CO37" s="117"/>
-      <c r="CP37" s="179"/>
+      <c r="CP37" s="178"/>
     </row>
-    <row r="38" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="113"/>
-      <c r="B38" s="233" t="s">
+      <c r="B38" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="207"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171" t="s">
+      <c r="C38" s="206"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170" t="s">
         <v>321</v>
       </c>
-      <c r="F38" s="171"/>
+      <c r="F38" s="170"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="234" t="s">
+      <c r="L38" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="M38" s="234"/>
+      <c r="M38" s="233"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="234"/>
-      <c r="R38" s="234"/>
-      <c r="S38" s="234"/>
-      <c r="T38" s="234"/>
+      <c r="Q38" s="233"/>
+      <c r="R38" s="233"/>
+      <c r="S38" s="233"/>
+      <c r="T38" s="233"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="20"/>
-      <c r="Z38" s="199"/>
+      <c r="Z38" s="198"/>
       <c r="AA38" s="113"/>
-      <c r="AB38" s="163" t="s">
+      <c r="AB38" s="162" t="s">
         <v>265</v>
       </c>
       <c r="AC38" s="8" t="s">
@@ -14911,7 +14977,7 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
-      <c r="AJ38" s="163" t="s">
+      <c r="AJ38" s="162" t="s">
         <v>70</v>
       </c>
       <c r="AK38" s="8" t="s">
@@ -14932,15 +14998,15 @@
       <c r="BC38" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="BD38" s="222" t="s">
+      <c r="BD38" s="221" t="s">
         <v>497</v>
       </c>
-      <c r="BE38" s="222"/>
-      <c r="BF38" s="222"/>
-      <c r="BG38" s="222"/>
-      <c r="BH38" s="222"/>
-      <c r="BI38" s="222"/>
-      <c r="BJ38" s="222"/>
+      <c r="BE38" s="221"/>
+      <c r="BF38" s="221"/>
+      <c r="BG38" s="221"/>
+      <c r="BH38" s="221"/>
+      <c r="BI38" s="221"/>
+      <c r="BJ38" s="221"/>
       <c r="BL38"/>
       <c r="BM38" s="113"/>
       <c r="BN38" s="4"/>
@@ -14949,7 +15015,7 @@
         <v>156</v>
       </c>
       <c r="BQ38" s="4"/>
-      <c r="BR38" s="172" t="s">
+      <c r="BR38" s="171" t="s">
         <v>352</v>
       </c>
       <c r="BS38" s="4"/>
@@ -14975,29 +15041,29 @@
       <c r="CM38" s="117"/>
       <c r="CN38" s="117"/>
       <c r="CO38" s="117"/>
-      <c r="CP38" s="179"/>
+      <c r="CP38" s="178"/>
     </row>
-    <row r="39" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" ht="18" customHeight="1" thickBot="1">
       <c r="A39" s="113"/>
       <c r="B39" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="436" t="s">
+      <c r="E39" s="347" t="s">
         <v>421</v>
       </c>
-      <c r="F39" s="437"/>
-      <c r="G39" s="237"/>
+      <c r="F39" s="348"/>
+      <c r="G39" s="236"/>
       <c r="H39" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="237"/>
+      <c r="I39" s="236"/>
       <c r="J39" s="135" t="s">
         <v>418</v>
       </c>
       <c r="K39" s="81"/>
-      <c r="L39" s="238"/>
+      <c r="L39" s="237"/>
       <c r="M39" s="135" t="s">
         <v>42</v>
       </c>
@@ -15005,11 +15071,11 @@
       <c r="O39" s="87" t="s">
         <v>424</v>
       </c>
-      <c r="P39" s="438" t="s">
+      <c r="P39" s="349" t="s">
         <v>419</v>
       </c>
-      <c r="Q39" s="439"/>
-      <c r="R39" s="238"/>
+      <c r="Q39" s="350"/>
+      <c r="R39" s="237"/>
       <c r="S39" s="136" t="s">
         <v>42</v>
       </c>
@@ -15021,13 +15087,13 @@
       </c>
       <c r="V39" s="82"/>
       <c r="W39" s="83"/>
-      <c r="X39" s="238"/>
+      <c r="X39" s="237"/>
       <c r="Y39" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="Z39" s="199"/>
+      <c r="Z39" s="198"/>
       <c r="AA39" s="113"/>
-      <c r="AB39" s="163" t="s">
+      <c r="AB39" s="162" t="s">
         <v>255</v>
       </c>
       <c r="AC39" s="8" t="s">
@@ -15055,15 +15121,15 @@
       <c r="BC39" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="BD39" s="222" t="s">
+      <c r="BD39" s="221" t="s">
         <v>523</v>
       </c>
-      <c r="BE39" s="222"/>
-      <c r="BF39" s="222"/>
-      <c r="BG39" s="222"/>
-      <c r="BH39" s="222"/>
-      <c r="BI39" s="222"/>
-      <c r="BJ39" s="222"/>
+      <c r="BE39" s="221"/>
+      <c r="BF39" s="221"/>
+      <c r="BG39" s="221"/>
+      <c r="BH39" s="221"/>
+      <c r="BI39" s="221"/>
+      <c r="BJ39" s="221"/>
       <c r="BL39"/>
       <c r="BM39" s="113"/>
       <c r="BN39" s="6">
@@ -15100,39 +15166,39 @@
       <c r="CM39" s="117"/>
       <c r="CN39" s="117"/>
       <c r="CO39" s="117"/>
-      <c r="CP39" s="179"/>
+      <c r="CP39" s="178"/>
     </row>
-    <row r="40" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="444" t="s">
+    <row r="40" spans="1:94" ht="18" customHeight="1" thickBot="1">
+      <c r="A40" s="352" t="s">
         <v>437</v>
       </c>
-      <c r="B40" s="445"/>
-      <c r="C40" s="445"/>
-      <c r="D40" s="445"/>
-      <c r="E40" s="445"/>
-      <c r="F40" s="445"/>
-      <c r="G40" s="445"/>
-      <c r="H40" s="445"/>
-      <c r="I40" s="445"/>
-      <c r="J40" s="445"/>
-      <c r="K40" s="445"/>
-      <c r="L40" s="445"/>
-      <c r="M40" s="445"/>
-      <c r="N40" s="445"/>
-      <c r="O40" s="445"/>
-      <c r="P40" s="445"/>
-      <c r="Q40" s="445"/>
-      <c r="R40" s="445"/>
-      <c r="S40" s="445"/>
-      <c r="T40" s="445"/>
-      <c r="U40" s="445"/>
-      <c r="V40" s="445"/>
-      <c r="W40" s="445"/>
-      <c r="X40" s="445"/>
-      <c r="Y40" s="445"/>
-      <c r="Z40" s="199"/>
+      <c r="B40" s="353"/>
+      <c r="C40" s="353"/>
+      <c r="D40" s="353"/>
+      <c r="E40" s="353"/>
+      <c r="F40" s="353"/>
+      <c r="G40" s="353"/>
+      <c r="H40" s="353"/>
+      <c r="I40" s="353"/>
+      <c r="J40" s="353"/>
+      <c r="K40" s="353"/>
+      <c r="L40" s="353"/>
+      <c r="M40" s="353"/>
+      <c r="N40" s="353"/>
+      <c r="O40" s="353"/>
+      <c r="P40" s="353"/>
+      <c r="Q40" s="353"/>
+      <c r="R40" s="353"/>
+      <c r="S40" s="353"/>
+      <c r="T40" s="353"/>
+      <c r="U40" s="353"/>
+      <c r="V40" s="353"/>
+      <c r="W40" s="353"/>
+      <c r="X40" s="353"/>
+      <c r="Y40" s="353"/>
+      <c r="Z40" s="198"/>
       <c r="AA40" s="113"/>
-      <c r="AB40" s="163" t="s">
+      <c r="AB40" s="162" t="s">
         <v>256</v>
       </c>
       <c r="AC40" s="8" t="s">
@@ -15193,9 +15259,9 @@
       <c r="CM40" s="117"/>
       <c r="CN40" s="117"/>
       <c r="CO40" s="117"/>
-      <c r="CP40" s="179"/>
+      <c r="CP40" s="178"/>
     </row>
-    <row r="41" spans="1:94" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="113"/>
       <c r="B41" s="11" t="s">
         <v>158</v>
@@ -15223,10 +15289,10 @@
       <c r="O41" s="87" t="s">
         <v>424</v>
       </c>
-      <c r="P41" s="438" t="s">
+      <c r="P41" s="349" t="s">
         <v>419</v>
       </c>
-      <c r="Q41" s="443"/>
+      <c r="Q41" s="351"/>
       <c r="R41" s="85"/>
       <c r="S41" s="138" t="s">
         <v>42</v>
@@ -15243,20 +15309,20 @@
       <c r="Y41" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="Z41" s="199"/>
+      <c r="Z41" s="198"/>
       <c r="AA41" s="113"/>
-      <c r="AB41" s="164" t="s">
+      <c r="AB41" s="163" t="s">
         <v>459</v>
       </c>
-      <c r="AC41" s="164"/>
-      <c r="AD41" s="164"/>
-      <c r="AE41" s="164"/>
-      <c r="AF41" s="164"/>
-      <c r="AG41" s="164"/>
-      <c r="AH41" s="164"/>
-      <c r="AI41" s="164"/>
-      <c r="AJ41" s="164"/>
-      <c r="AK41" s="164"/>
+      <c r="AC41" s="163"/>
+      <c r="AD41" s="163"/>
+      <c r="AE41" s="163"/>
+      <c r="AF41" s="163"/>
+      <c r="AG41" s="163"/>
+      <c r="AH41" s="163"/>
+      <c r="AI41" s="163"/>
+      <c r="AJ41" s="163"/>
+      <c r="AK41" s="163"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
@@ -15270,7 +15336,7 @@
         <v>233</v>
       </c>
       <c r="BL41"/>
-      <c r="BM41" s="186"/>
+      <c r="BM41" s="185"/>
       <c r="BN41" s="6">
         <v>8</v>
       </c>
@@ -15305,14 +15371,14 @@
       <c r="CM41" s="117"/>
       <c r="CN41" s="117"/>
       <c r="CO41" s="117"/>
-      <c r="CP41" s="179"/>
+      <c r="CP41" s="178"/>
     </row>
-    <row r="42" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="239"/>
-      <c r="B42" s="240" t="s">
+    <row r="42" spans="1:94" ht="18" customHeight="1">
+      <c r="A42" s="238"/>
+      <c r="B42" s="239" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="241"/>
+      <c r="C42" s="240"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -15335,9 +15401,9 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="199"/>
+      <c r="Z42" s="198"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="163" t="s">
+      <c r="AB42" s="162" t="s">
         <v>9</v>
       </c>
       <c r="AC42" s="8" t="s">
@@ -15368,28 +15434,28 @@
       </c>
       <c r="BK42"/>
       <c r="BL42"/>
-      <c r="BM42" s="430" t="s">
+      <c r="BM42" s="337" t="s">
         <v>325</v>
       </c>
-      <c r="BN42" s="431"/>
-      <c r="BO42" s="431"/>
-      <c r="BP42" s="431"/>
-      <c r="BQ42" s="431"/>
-      <c r="BR42" s="431"/>
-      <c r="BS42" s="431"/>
-      <c r="BT42" s="431"/>
-      <c r="BU42" s="431"/>
-      <c r="BV42" s="431"/>
-      <c r="BW42" s="431"/>
-      <c r="BX42" s="431"/>
-      <c r="BY42" s="431"/>
-      <c r="BZ42" s="431"/>
-      <c r="CA42" s="431"/>
-      <c r="CB42" s="431"/>
-      <c r="CC42" s="431"/>
-      <c r="CD42" s="431"/>
-      <c r="CE42" s="431"/>
-      <c r="CF42" s="432"/>
+      <c r="BN42" s="338"/>
+      <c r="BO42" s="338"/>
+      <c r="BP42" s="338"/>
+      <c r="BQ42" s="338"/>
+      <c r="BR42" s="338"/>
+      <c r="BS42" s="338"/>
+      <c r="BT42" s="338"/>
+      <c r="BU42" s="338"/>
+      <c r="BV42" s="338"/>
+      <c r="BW42" s="338"/>
+      <c r="BX42" s="338"/>
+      <c r="BY42" s="338"/>
+      <c r="BZ42" s="338"/>
+      <c r="CA42" s="338"/>
+      <c r="CB42" s="338"/>
+      <c r="CC42" s="338"/>
+      <c r="CD42" s="338"/>
+      <c r="CE42" s="338"/>
+      <c r="CF42" s="339"/>
       <c r="CG42" s="4"/>
       <c r="CH42" s="4"/>
       <c r="CI42" s="117"/>
@@ -15399,9 +15465,9 @@
       <c r="CM42" s="117"/>
       <c r="CN42" s="117"/>
       <c r="CO42" s="117"/>
-      <c r="CP42" s="179"/>
+      <c r="CP42" s="178"/>
     </row>
-    <row r="43" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:94" ht="18" customHeight="1">
       <c r="A43" s="113"/>
       <c r="B43" s="3" t="s">
         <v>272</v>
@@ -15431,8 +15497,8 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="199"/>
-      <c r="AB43" s="163"/>
+      <c r="Z43" s="198"/>
+      <c r="AB43" s="162"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
@@ -15454,36 +15520,36 @@
       <c r="BJ43"/>
       <c r="BK43"/>
       <c r="BL43"/>
-      <c r="BM43" s="321">
+      <c r="BM43" s="331">
         <v>9</v>
       </c>
-      <c r="BN43" s="322"/>
+      <c r="BN43" s="332"/>
       <c r="BO43" s="42"/>
       <c r="BP43" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="BQ43" s="320" t="s">
+      <c r="BQ43" s="491" t="s">
         <v>518</v>
       </c>
-      <c r="BR43" s="320"/>
-      <c r="BS43" s="320"/>
-      <c r="BT43" s="320"/>
-      <c r="BU43" s="320"/>
-      <c r="BV43" s="320"/>
-      <c r="BW43" s="320"/>
-      <c r="BX43" s="320"/>
+      <c r="BR43" s="491"/>
+      <c r="BS43" s="491"/>
+      <c r="BT43" s="491"/>
+      <c r="BU43" s="491"/>
+      <c r="BV43" s="491"/>
+      <c r="BW43" s="491"/>
+      <c r="BX43" s="491"/>
       <c r="BY43" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="BZ43" s="209"/>
-      <c r="CA43" s="209"/>
+      <c r="BZ43" s="208"/>
+      <c r="CA43" s="208"/>
       <c r="CB43" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="CC43" s="209"/>
-      <c r="CD43" s="209"/>
+      <c r="CC43" s="208"/>
+      <c r="CD43" s="208"/>
       <c r="CE43" s="42"/>
-      <c r="CF43" s="210"/>
+      <c r="CF43" s="209"/>
       <c r="CG43" s="4"/>
       <c r="CH43" s="4"/>
       <c r="CI43" s="117"/>
@@ -15493,9 +15559,9 @@
       <c r="CM43" s="117"/>
       <c r="CN43" s="117"/>
       <c r="CO43" s="117"/>
-      <c r="CP43" s="179"/>
+      <c r="CP43" s="178"/>
     </row>
-    <row r="44" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:94" ht="18" customHeight="1">
       <c r="A44" s="113"/>
       <c r="B44" s="3" t="s">
         <v>465</v>
@@ -15525,7 +15591,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="199"/>
+      <c r="Z44" s="198"/>
       <c r="AA44" s="3" t="s">
         <v>332</v>
       </c>
@@ -15534,7 +15600,7 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="188"/>
+      <c r="AG44" s="187"/>
       <c r="AH44" s="22" t="s">
         <v>333</v>
       </c>
@@ -15561,10 +15627,10 @@
       <c r="BJ44"/>
       <c r="BK44"/>
       <c r="BL44"/>
-      <c r="BM44" s="321">
+      <c r="BM44" s="331">
         <v>10</v>
       </c>
-      <c r="BN44" s="322"/>
+      <c r="BN44" s="332"/>
       <c r="BO44" s="42"/>
       <c r="BP44" s="41" t="s">
         <v>240</v>
@@ -15600,9 +15666,9 @@
       <c r="CM44" s="117"/>
       <c r="CN44" s="117"/>
       <c r="CO44" s="117"/>
-      <c r="CP44" s="179"/>
+      <c r="CP44" s="178"/>
     </row>
-    <row r="45" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:94" ht="18" customHeight="1">
       <c r="A45" s="113"/>
       <c r="B45" s="3" t="s">
         <v>466</v>
@@ -15632,7 +15698,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="199"/>
+      <c r="Z45" s="198"/>
       <c r="AA45" s="3" t="s">
         <v>526</v>
       </c>
@@ -15652,14 +15718,14 @@
       <c r="AU45" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="BC45" s="247" t="s">
+      <c r="BC45" s="246" t="s">
         <v>533</v>
       </c>
       <c r="BL45"/>
-      <c r="BM45" s="321" t="s">
+      <c r="BM45" s="331" t="s">
         <v>522</v>
       </c>
-      <c r="BN45" s="322"/>
+      <c r="BN45" s="332"/>
       <c r="BO45" s="42"/>
       <c r="BP45" s="41" t="s">
         <v>306</v>
@@ -15690,15 +15756,15 @@
       </c>
       <c r="CI45" s="4"/>
       <c r="CJ45" s="4"/>
-      <c r="CK45" s="173"/>
-      <c r="CL45" s="173"/>
-      <c r="CM45" s="173"/>
-      <c r="CN45" s="173"/>
+      <c r="CK45" s="172"/>
+      <c r="CL45" s="172"/>
+      <c r="CM45" s="172"/>
+      <c r="CN45" s="172"/>
       <c r="CO45" s="4"/>
       <c r="CP45" s="56"/>
     </row>
-    <row r="46" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="242" t="s">
+    <row r="46" spans="1:94" ht="18" customHeight="1">
+      <c r="A46" s="241" t="s">
         <v>347</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -15733,7 +15799,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="Z46" s="199"/>
+      <c r="Z46" s="198"/>
       <c r="AA46" s="3" t="s">
         <v>460</v>
       </c>
@@ -15789,7 +15855,7 @@
       <c r="CF46" s="80"/>
       <c r="CG46" s="4"/>
       <c r="CH46" s="4"/>
-      <c r="CI46" s="174" t="s">
+      <c r="CI46" s="173" t="s">
         <v>315</v>
       </c>
       <c r="CJ46" s="4"/>
@@ -15798,10 +15864,10 @@
       <c r="CM46" s="4"/>
       <c r="CN46" s="4"/>
       <c r="CO46" s="4"/>
-      <c r="CP46" s="180"/>
+      <c r="CP46" s="179"/>
     </row>
-    <row r="47" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="242" t="s">
+    <row r="47" spans="1:94" ht="18" customHeight="1">
+      <c r="A47" s="241" t="s">
         <v>347</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -15832,11 +15898,11 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="199"/>
-      <c r="AA47" s="427" t="s">
+      <c r="Z47" s="198"/>
+      <c r="AA47" s="334" t="s">
         <v>462</v>
       </c>
-      <c r="AB47" s="427"/>
+      <c r="AB47" s="334"/>
       <c r="AC47" s="8" t="s">
         <v>463</v>
       </c>
@@ -15874,28 +15940,28 @@
       </c>
       <c r="BZ47" s="79"/>
       <c r="CA47" s="79"/>
-      <c r="CB47" s="228" t="s">
+      <c r="CB47" s="227" t="s">
         <v>416</v>
       </c>
-      <c r="CC47" s="229"/>
-      <c r="CD47" s="229"/>
-      <c r="CE47" s="229"/>
-      <c r="CF47" s="230"/>
-      <c r="CG47" s="317" t="s">
+      <c r="CC47" s="228"/>
+      <c r="CD47" s="228"/>
+      <c r="CE47" s="228"/>
+      <c r="CF47" s="229"/>
+      <c r="CG47" s="488" t="s">
         <v>285</v>
       </c>
-      <c r="CH47" s="317"/>
-      <c r="CI47" s="317"/>
-      <c r="CJ47" s="317"/>
-      <c r="CK47" s="317"/>
-      <c r="CL47" s="317"/>
-      <c r="CM47" s="317"/>
-      <c r="CN47" s="317"/>
-      <c r="CO47" s="317"/>
-      <c r="CP47" s="318"/>
+      <c r="CH47" s="488"/>
+      <c r="CI47" s="488"/>
+      <c r="CJ47" s="488"/>
+      <c r="CK47" s="488"/>
+      <c r="CL47" s="488"/>
+      <c r="CM47" s="488"/>
+      <c r="CN47" s="488"/>
+      <c r="CO47" s="488"/>
+      <c r="CP47" s="489"/>
     </row>
-    <row r="48" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="242" t="s">
+    <row r="48" spans="1:94" ht="18" customHeight="1">
+      <c r="A48" s="241" t="s">
         <v>347</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -15926,8 +15992,8 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="199"/>
-      <c r="AB48" s="163" t="s">
+      <c r="Z48" s="198"/>
+      <c r="AB48" s="162" t="s">
         <v>8</v>
       </c>
       <c r="AC48" s="8" t="s">
@@ -15939,7 +16005,7 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
-      <c r="AJ48" s="214" t="s">
+      <c r="AJ48" s="213" t="s">
         <v>439</v>
       </c>
       <c r="AK48" s="4" t="s">
@@ -15957,13 +16023,13 @@
         <v>110</v>
       </c>
       <c r="BB48" s="4"/>
-      <c r="BC48" s="219" t="s">
+      <c r="BC48" s="218" t="s">
         <v>529</v>
       </c>
-      <c r="BG48" s="220"/>
-      <c r="BI48" s="217"/>
-      <c r="BJ48" s="219"/>
-      <c r="BK48" s="218"/>
+      <c r="BG48" s="219"/>
+      <c r="BI48" s="216"/>
+      <c r="BJ48" s="218"/>
+      <c r="BK48" s="217"/>
       <c r="BL48"/>
       <c r="BM48" s="62"/>
       <c r="BN48" s="42"/>
@@ -15999,18 +16065,18 @@
       <c r="CJ48" s="4"/>
       <c r="CK48" s="4"/>
       <c r="CL48" s="4"/>
-      <c r="CM48" s="175"/>
-      <c r="CN48" s="176"/>
-      <c r="CO48" s="175"/>
-      <c r="CP48" s="181" t="s">
+      <c r="CM48" s="174"/>
+      <c r="CN48" s="175"/>
+      <c r="CO48" s="174"/>
+      <c r="CP48" s="180" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="243" t="s">
+    <row r="49" spans="1:94" ht="18" customHeight="1">
+      <c r="A49" s="242" t="s">
         <v>392</v>
       </c>
-      <c r="B49" s="244" t="s">
+      <c r="B49" s="243" t="s">
         <v>261</v>
       </c>
       <c r="C49" s="57"/>
@@ -16036,8 +16102,8 @@
       <c r="W49" s="57"/>
       <c r="X49" s="57"/>
       <c r="Y49" s="57"/>
-      <c r="Z49" s="194"/>
-      <c r="AA49" s="186"/>
+      <c r="Z49" s="193"/>
+      <c r="AA49" s="185"/>
       <c r="AB49" s="57"/>
       <c r="AC49" s="57"/>
       <c r="AD49" s="57"/>
@@ -16046,7 +16112,7 @@
       <c r="AG49" s="57"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
-      <c r="AJ49" s="214" t="s">
+      <c r="AJ49" s="213" t="s">
         <v>440</v>
       </c>
       <c r="AK49" s="57" t="s">
@@ -16057,12 +16123,12 @@
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
       <c r="AQ49" s="56"/>
-      <c r="AR49" s="188"/>
-      <c r="AS49" s="188"/>
-      <c r="AT49" s="188"/>
-      <c r="AU49" s="188"/>
-      <c r="AV49" s="188"/>
-      <c r="AW49" s="188"/>
+      <c r="AR49" s="187"/>
+      <c r="AS49" s="187"/>
+      <c r="AT49" s="187"/>
+      <c r="AU49" s="187"/>
+      <c r="AV49" s="187"/>
+      <c r="AW49" s="187"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4"/>
       <c r="BA49" s="125"/>
@@ -16074,15 +16140,15 @@
       <c r="BE49" s="57"/>
       <c r="BF49" s="57"/>
       <c r="BG49" s="57"/>
-      <c r="BH49" s="216"/>
-      <c r="BI49" s="216"/>
-      <c r="BJ49" s="216"/>
-      <c r="BK49" s="216"/>
-      <c r="BL49" s="223"/>
-      <c r="BM49" s="321">
+      <c r="BH49" s="215"/>
+      <c r="BI49" s="215"/>
+      <c r="BJ49" s="215"/>
+      <c r="BK49" s="215"/>
+      <c r="BL49" s="222"/>
+      <c r="BM49" s="331">
         <v>12</v>
       </c>
-      <c r="BN49" s="322"/>
+      <c r="BN49" s="332"/>
       <c r="BO49" s="42"/>
       <c r="BP49" s="41" t="s">
         <v>308</v>
@@ -16120,12 +16186,12 @@
       <c r="CO49" s="4"/>
       <c r="CP49" s="56"/>
     </row>
-    <row r="50" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="227" t="s">
+    <row r="50" spans="1:94" ht="18" customHeight="1">
+      <c r="A50" s="226" t="s">
         <v>535</v>
       </c>
       <c r="B50" s="51"/>
-      <c r="C50" s="224" t="s">
+      <c r="C50" s="223" t="s">
         <v>270</v>
       </c>
       <c r="D50" s="51"/>
@@ -16133,7 +16199,7 @@
       <c r="F50" s="51"/>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
-      <c r="J50" s="225" t="s">
+      <c r="J50" s="224" t="s">
         <v>380</v>
       </c>
       <c r="K50" s="51"/>
@@ -16151,20 +16217,20 @@
       <c r="W50" s="51"/>
       <c r="X50" s="51"/>
       <c r="Y50" s="51"/>
-      <c r="Z50" s="198"/>
+      <c r="Z50" s="197"/>
       <c r="AA50" s="113"/>
       <c r="AF50" s="26" t="s">
         <v>386</v>
       </c>
       <c r="AH50" s="51"/>
-      <c r="AI50" s="215"/>
+      <c r="AI50" s="214"/>
       <c r="AJ50" s="51"/>
       <c r="AM50" s="51"/>
       <c r="AN50" s="51"/>
       <c r="AO50" s="51"/>
       <c r="AP50" s="51"/>
       <c r="AQ50" s="51"/>
-      <c r="AR50" s="166" t="s">
+      <c r="AR50" s="165" t="s">
         <v>485</v>
       </c>
       <c r="AS50" s="51"/>
@@ -16176,7 +16242,7 @@
       <c r="AY50" s="51"/>
       <c r="AZ50" s="51"/>
       <c r="BA50" s="51"/>
-      <c r="BB50" s="204" t="s">
+      <c r="BB50" s="203" t="s">
         <v>481</v>
       </c>
       <c r="BC50" s="51"/>
@@ -16206,15 +16272,15 @@
       <c r="BW50" s="42"/>
       <c r="BX50" s="42"/>
       <c r="BY50" s="42"/>
-      <c r="BZ50" s="428" t="s">
+      <c r="BZ50" s="335" t="s">
         <v>413</v>
       </c>
-      <c r="CA50" s="428"/>
-      <c r="CB50" s="428"/>
-      <c r="CC50" s="428"/>
-      <c r="CD50" s="428"/>
-      <c r="CE50" s="428"/>
-      <c r="CF50" s="429"/>
+      <c r="CA50" s="335"/>
+      <c r="CB50" s="335"/>
+      <c r="CC50" s="335"/>
+      <c r="CD50" s="335"/>
+      <c r="CE50" s="335"/>
+      <c r="CF50" s="336"/>
       <c r="CG50" s="4"/>
       <c r="CH50" s="30" t="s">
         <v>257</v>
@@ -16230,9 +16296,9 @@
       <c r="CO50" s="4"/>
       <c r="CP50" s="56"/>
     </row>
-    <row r="51" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:94" ht="18" customHeight="1">
       <c r="A51" s="113"/>
-      <c r="C51" s="226" t="s">
+      <c r="C51" s="225" t="s">
         <v>383</v>
       </c>
       <c r="D51" s="4"/>
@@ -16257,8 +16323,8 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="199"/>
-      <c r="AA51" s="190" t="s">
+      <c r="Z51" s="198"/>
+      <c r="AA51" s="189" t="s">
         <v>471</v>
       </c>
       <c r="AB51" s="54"/>
@@ -16344,14 +16410,14 @@
       <c r="CO51" s="4"/>
       <c r="CP51" s="56"/>
     </row>
-    <row r="52" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:94" ht="18" customHeight="1">
       <c r="A52" s="131" t="s">
         <v>486</v>
       </c>
       <c r="C52" s="149" t="s">
         <v>339</v>
       </c>
-      <c r="Z52" s="194"/>
+      <c r="Z52" s="193"/>
       <c r="AA52" s="53"/>
       <c r="AB52" s="21"/>
       <c r="AD52" s="21"/>
@@ -16406,7 +16472,7 @@
       <c r="BT52" s="4"/>
       <c r="BU52" s="4"/>
       <c r="BV52" s="4"/>
-      <c r="BW52" s="204" t="s">
+      <c r="BW52" s="203" t="s">
         <v>311</v>
       </c>
       <c r="BX52" s="51"/>
@@ -16417,20 +16483,20 @@
       <c r="CC52" s="51"/>
       <c r="CD52" s="51"/>
       <c r="CF52" s="52"/>
-      <c r="CG52" s="317" t="s">
+      <c r="CG52" s="488" t="s">
         <v>312</v>
       </c>
-      <c r="CH52" s="317"/>
-      <c r="CI52" s="317"/>
-      <c r="CJ52" s="317"/>
-      <c r="CK52" s="317"/>
-      <c r="CL52" s="317"/>
-      <c r="CM52" s="317"/>
-      <c r="CN52" s="317"/>
-      <c r="CO52" s="317"/>
-      <c r="CP52" s="318"/>
+      <c r="CH52" s="488"/>
+      <c r="CI52" s="488"/>
+      <c r="CJ52" s="488"/>
+      <c r="CK52" s="488"/>
+      <c r="CL52" s="488"/>
+      <c r="CM52" s="488"/>
+      <c r="CN52" s="488"/>
+      <c r="CO52" s="488"/>
+      <c r="CP52" s="489"/>
     </row>
-    <row r="53" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:94" ht="18" customHeight="1">
       <c r="A53" s="119">
         <v>0</v>
       </c>
@@ -16461,26 +16527,26 @@
       <c r="X53" s="51"/>
       <c r="Y53" s="51"/>
       <c r="Z53" s="4"/>
-      <c r="AA53" s="253" t="s">
+      <c r="AA53" s="521" t="s">
         <v>482</v>
       </c>
-      <c r="AB53" s="254"/>
-      <c r="AC53" s="254"/>
-      <c r="AD53" s="254"/>
-      <c r="AE53" s="254"/>
-      <c r="AF53" s="254"/>
-      <c r="AG53" s="254"/>
-      <c r="AH53" s="254"/>
-      <c r="AI53" s="255" t="s">
+      <c r="AB53" s="522"/>
+      <c r="AC53" s="522"/>
+      <c r="AD53" s="522"/>
+      <c r="AE53" s="522"/>
+      <c r="AF53" s="522"/>
+      <c r="AG53" s="522"/>
+      <c r="AH53" s="522"/>
+      <c r="AI53" s="523" t="s">
         <v>483</v>
       </c>
-      <c r="AJ53" s="255"/>
-      <c r="AK53" s="255"/>
-      <c r="AL53" s="255"/>
-      <c r="AM53" s="255"/>
-      <c r="AN53" s="255"/>
-      <c r="AO53" s="255"/>
-      <c r="AP53" s="255"/>
+      <c r="AJ53" s="523"/>
+      <c r="AK53" s="523"/>
+      <c r="AL53" s="523"/>
+      <c r="AM53" s="523"/>
+      <c r="AN53" s="523"/>
+      <c r="AO53" s="523"/>
+      <c r="AP53" s="523"/>
       <c r="AR53" s="3" t="s">
         <v>477</v>
       </c>
@@ -16520,33 +16586,33 @@
       <c r="BW53" s="146" t="s">
         <v>475</v>
       </c>
-      <c r="BX53" s="211"/>
-      <c r="BY53" s="211"/>
-      <c r="BZ53" s="211"/>
-      <c r="CA53" s="211"/>
-      <c r="CB53" s="211"/>
-      <c r="CC53" s="211"/>
-      <c r="CD53" s="211"/>
-      <c r="CE53" s="211"/>
-      <c r="CF53" s="212"/>
+      <c r="BX53" s="210"/>
+      <c r="BY53" s="210"/>
+      <c r="BZ53" s="210"/>
+      <c r="CA53" s="210"/>
+      <c r="CB53" s="210"/>
+      <c r="CC53" s="210"/>
+      <c r="CD53" s="210"/>
+      <c r="CE53" s="210"/>
+      <c r="CF53" s="211"/>
       <c r="CG53" s="4"/>
       <c r="CH53" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="CI53" s="177"/>
-      <c r="CJ53" s="177"/>
-      <c r="CK53" s="177"/>
-      <c r="CL53" s="177"/>
-      <c r="CM53" s="177" t="s">
+      <c r="CI53" s="176"/>
+      <c r="CJ53" s="176"/>
+      <c r="CK53" s="176"/>
+      <c r="CL53" s="176"/>
+      <c r="CM53" s="176" t="s">
         <v>313</v>
       </c>
       <c r="CN53" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="CO53" s="177"/>
-      <c r="CP53" s="182"/>
+      <c r="CO53" s="176"/>
+      <c r="CP53" s="181"/>
     </row>
-    <row r="54" spans="1:94" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:94" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="119">
         <v>6</v>
       </c>
@@ -16576,7 +16642,7 @@
       <c r="W54" s="54"/>
       <c r="X54" s="73"/>
       <c r="Y54" s="54"/>
-      <c r="Z54" s="193"/>
+      <c r="Z54" s="192"/>
       <c r="AA54" s="29" t="s">
         <v>515</v>
       </c>
@@ -16584,42 +16650,42 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="54"/>
       <c r="AH54" s="58"/>
-      <c r="AI54" s="256" t="s">
+      <c r="AI54" s="524" t="s">
         <v>379</v>
       </c>
-      <c r="AJ54" s="256"/>
-      <c r="AK54" s="256"/>
-      <c r="AL54" s="256"/>
-      <c r="AM54" s="256"/>
-      <c r="AN54" s="256"/>
-      <c r="AO54" s="256"/>
-      <c r="AP54" s="256"/>
+      <c r="AJ54" s="524"/>
+      <c r="AK54" s="524"/>
+      <c r="AL54" s="524"/>
+      <c r="AM54" s="524"/>
+      <c r="AN54" s="524"/>
+      <c r="AO54" s="524"/>
+      <c r="AP54" s="524"/>
       <c r="AQ54" s="54"/>
-      <c r="AR54" s="262" t="s">
+      <c r="AR54" s="333" t="s">
         <v>478</v>
       </c>
-      <c r="AS54" s="262"/>
-      <c r="AT54" s="262"/>
-      <c r="AU54" s="262"/>
-      <c r="AV54" s="262"/>
-      <c r="AW54" s="262"/>
-      <c r="AX54" s="262"/>
-      <c r="AY54" s="262"/>
-      <c r="AZ54" s="262"/>
+      <c r="AS54" s="333"/>
+      <c r="AT54" s="333"/>
+      <c r="AU54" s="333"/>
+      <c r="AV54" s="333"/>
+      <c r="AW54" s="333"/>
+      <c r="AX54" s="333"/>
+      <c r="AY54" s="333"/>
+      <c r="AZ54" s="333"/>
       <c r="BA54" s="4"/>
-      <c r="BB54" s="255" t="s">
+      <c r="BB54" s="523" t="s">
         <v>479</v>
       </c>
-      <c r="BC54" s="255"/>
-      <c r="BD54" s="255"/>
-      <c r="BE54" s="255"/>
-      <c r="BF54" s="255"/>
-      <c r="BG54" s="255"/>
-      <c r="BH54" s="255"/>
-      <c r="BI54" s="255"/>
-      <c r="BJ54" s="255"/>
-      <c r="BK54" s="255"/>
-      <c r="BL54" s="255"/>
+      <c r="BC54" s="523"/>
+      <c r="BD54" s="523"/>
+      <c r="BE54" s="523"/>
+      <c r="BF54" s="523"/>
+      <c r="BG54" s="523"/>
+      <c r="BH54" s="523"/>
+      <c r="BI54" s="523"/>
+      <c r="BJ54" s="523"/>
+      <c r="BK54" s="523"/>
+      <c r="BL54" s="523"/>
       <c r="BM54" s="54"/>
       <c r="BN54" s="29" t="s">
         <v>504</v>
@@ -16645,19 +16711,19 @@
       <c r="CE54" s="54"/>
       <c r="CF54" s="74"/>
       <c r="CG54" s="4"/>
-      <c r="CH54" s="304" t="s">
+      <c r="CH54" s="480" t="s">
         <v>400</v>
       </c>
-      <c r="CI54" s="304"/>
-      <c r="CJ54" s="304"/>
-      <c r="CK54" s="304"/>
-      <c r="CL54" s="304"/>
-      <c r="CM54" s="304"/>
-      <c r="CN54" s="304"/>
-      <c r="CO54" s="304"/>
-      <c r="CP54" s="305"/>
+      <c r="CI54" s="480"/>
+      <c r="CJ54" s="480"/>
+      <c r="CK54" s="480"/>
+      <c r="CL54" s="480"/>
+      <c r="CM54" s="480"/>
+      <c r="CN54" s="480"/>
+      <c r="CO54" s="480"/>
+      <c r="CP54" s="481"/>
     </row>
-    <row r="55" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:94" ht="18" customHeight="1">
       <c r="A55" s="118">
         <v>11</v>
       </c>
@@ -16687,8 +16753,8 @@
       <c r="W55" s="57"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="57"/>
-      <c r="Z55" s="195"/>
-      <c r="AA55" s="192" t="s">
+      <c r="Z55" s="194"/>
+      <c r="AA55" s="191" t="s">
         <v>508</v>
       </c>
       <c r="AB55" s="148"/>
@@ -16757,19 +16823,19 @@
       <c r="CC55" s="127"/>
       <c r="CD55" s="127"/>
       <c r="CE55" s="127"/>
-      <c r="CF55" s="213"/>
-      <c r="CG55" s="186"/>
+      <c r="CF55" s="212"/>
+      <c r="CG55" s="185"/>
       <c r="CH55" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="CI55" s="201"/>
-      <c r="CJ55" s="201"/>
-      <c r="CK55" s="201"/>
-      <c r="CL55" s="201"/>
-      <c r="CM55" s="201"/>
-      <c r="CN55" s="201"/>
-      <c r="CO55" s="201"/>
-      <c r="CP55" s="202" t="s">
+      <c r="CI55" s="200"/>
+      <c r="CJ55" s="200"/>
+      <c r="CK55" s="200"/>
+      <c r="CL55" s="200"/>
+      <c r="CM55" s="200"/>
+      <c r="CN55" s="200"/>
+      <c r="CO55" s="200"/>
+      <c r="CP55" s="201" t="s">
         <v>401</v>
       </c>
     </row>
@@ -16783,93 +16849,101 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="220">
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="AA20:AE21"/>
-    <mergeCell ref="BQ18:BU19"/>
-    <mergeCell ref="BJ18:BN19"/>
-    <mergeCell ref="BJ20:BN21"/>
-    <mergeCell ref="BX18:CA19"/>
-    <mergeCell ref="BX20:CA21"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AV11:AZ11"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="BC11:BF11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="BX10:CB10"/>
-    <mergeCell ref="BX11:CB11"/>
-    <mergeCell ref="BX15:CB15"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="BM45:BN45"/>
-    <mergeCell ref="AY31:BK31"/>
-    <mergeCell ref="AY32:BK32"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="BZ50:CF50"/>
-    <mergeCell ref="BM42:CF42"/>
-    <mergeCell ref="BC18:BG19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A40:Y40"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="BC20:BG21"/>
-    <mergeCell ref="BI18:BI19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="BM43:BN43"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AO18:AS19"/>
-    <mergeCell ref="J18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="J20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="S18:W19"/>
-    <mergeCell ref="S20:W21"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AO20:AS21"/>
-    <mergeCell ref="AA18:AE19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AL19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AU20:AU21"/>
-    <mergeCell ref="AV18:AZ19"/>
-    <mergeCell ref="AV20:AZ21"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="CD2:CP2"/>
-    <mergeCell ref="BW2:CB2"/>
-    <mergeCell ref="CL10:CP10"/>
-    <mergeCell ref="BX13:CB13"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="CE11:CI11"/>
-    <mergeCell ref="BQ13:BU13"/>
-    <mergeCell ref="BQ10:BU10"/>
-    <mergeCell ref="BQ11:BU11"/>
-    <mergeCell ref="BQ9:BU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="AH20:AL21"/>
+    <mergeCell ref="AA53:AH53"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="BB54:BL54"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="AR54:AZ54"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="AH27:AP27"/>
+    <mergeCell ref="L32:W32"/>
+    <mergeCell ref="AA23:AG23"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="CH54:CP54"/>
+    <mergeCell ref="BQ15:BU15"/>
+    <mergeCell ref="BJ15:BN15"/>
+    <mergeCell ref="CE18:CP21"/>
+    <mergeCell ref="BP18:BP19"/>
+    <mergeCell ref="BW18:BW19"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BQ20:BU21"/>
+    <mergeCell ref="BW20:BW21"/>
+    <mergeCell ref="CG23:CP23"/>
+    <mergeCell ref="CG33:CP33"/>
+    <mergeCell ref="CG47:CP47"/>
+    <mergeCell ref="CG52:CP52"/>
+    <mergeCell ref="CH25:CJ25"/>
+    <mergeCell ref="BQ43:BX43"/>
+    <mergeCell ref="BM44:BN44"/>
+    <mergeCell ref="BM49:BN49"/>
+    <mergeCell ref="CL14:CP14"/>
+    <mergeCell ref="CL13:CP13"/>
+    <mergeCell ref="BX7:CB7"/>
+    <mergeCell ref="BX6:CB6"/>
+    <mergeCell ref="CE6:CI6"/>
+    <mergeCell ref="CE7:CI7"/>
+    <mergeCell ref="CL6:CP6"/>
+    <mergeCell ref="BX14:CB14"/>
+    <mergeCell ref="AO13:AS13"/>
+    <mergeCell ref="AO14:AS14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AH17:AL17"/>
+    <mergeCell ref="AH15:AL15"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="AO17:AS17"/>
+    <mergeCell ref="AH13:AL13"/>
+    <mergeCell ref="CE13:CI13"/>
+    <mergeCell ref="BX17:CB17"/>
+    <mergeCell ref="BQ17:BU17"/>
+    <mergeCell ref="BJ17:BN17"/>
+    <mergeCell ref="BC17:BG17"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="CE15:CI15"/>
+    <mergeCell ref="CE14:CH14"/>
+    <mergeCell ref="BQ14:BU14"/>
+    <mergeCell ref="BC15:BG15"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BJ14:BN14"/>
+    <mergeCell ref="BJ13:BN13"/>
     <mergeCell ref="BC14:BG14"/>
     <mergeCell ref="CL5:CP5"/>
     <mergeCell ref="BI20:BI21"/>
@@ -16891,27 +16965,45 @@
     <mergeCell ref="AO10:AS10"/>
     <mergeCell ref="CL7:CP7"/>
     <mergeCell ref="CL11:CO11"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AH17:AL17"/>
-    <mergeCell ref="AH15:AL15"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AO17:AS17"/>
-    <mergeCell ref="AH13:AL13"/>
-    <mergeCell ref="CE13:CI13"/>
-    <mergeCell ref="BX17:CB17"/>
-    <mergeCell ref="BQ17:BU17"/>
-    <mergeCell ref="BJ17:BN17"/>
-    <mergeCell ref="BC17:BG17"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="CE15:CI15"/>
-    <mergeCell ref="CE14:CH14"/>
-    <mergeCell ref="BQ14:BU14"/>
-    <mergeCell ref="BC15:BG15"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BJ14:BN14"/>
-    <mergeCell ref="BJ13:BN13"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="CD2:CP2"/>
+    <mergeCell ref="BW2:CB2"/>
+    <mergeCell ref="CL10:CP10"/>
+    <mergeCell ref="BX13:CB13"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CE11:CI11"/>
+    <mergeCell ref="BQ13:BU13"/>
+    <mergeCell ref="BQ10:BU10"/>
+    <mergeCell ref="BQ11:BU11"/>
+    <mergeCell ref="BQ9:BU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BC9:BG9"/>
     <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="CK3:CP3"/>
+    <mergeCell ref="BJ5:BN5"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BX5:CB5"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A40:Y40"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="J20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="S18:W19"/>
+    <mergeCell ref="S20:W21"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -16920,94 +17012,68 @@
     <mergeCell ref="S13:W13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="CK3:CP3"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="BJ5:BN5"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BX5:CB5"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="CL14:CP14"/>
-    <mergeCell ref="CL13:CP13"/>
-    <mergeCell ref="BX7:CB7"/>
-    <mergeCell ref="BX6:CB6"/>
-    <mergeCell ref="CE6:CI6"/>
-    <mergeCell ref="CE7:CI7"/>
-    <mergeCell ref="CL6:CP6"/>
-    <mergeCell ref="BX14:CB14"/>
-    <mergeCell ref="AO13:AS13"/>
-    <mergeCell ref="AO14:AS14"/>
-    <mergeCell ref="CH54:CP54"/>
-    <mergeCell ref="BQ15:BU15"/>
-    <mergeCell ref="BJ15:BN15"/>
-    <mergeCell ref="CE18:CP21"/>
-    <mergeCell ref="BP18:BP19"/>
-    <mergeCell ref="BW18:BW19"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BQ20:BU21"/>
-    <mergeCell ref="BW20:BW21"/>
-    <mergeCell ref="CG23:CP23"/>
-    <mergeCell ref="CG33:CP33"/>
-    <mergeCell ref="CG47:CP47"/>
-    <mergeCell ref="CG52:CP52"/>
-    <mergeCell ref="CH25:CJ25"/>
-    <mergeCell ref="BQ43:BX43"/>
-    <mergeCell ref="BM44:BN44"/>
-    <mergeCell ref="BM49:BN49"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="AA53:AH53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AI54:AP54"/>
-    <mergeCell ref="BB54:BL54"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="AR54:AZ54"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="AH27:AP27"/>
-    <mergeCell ref="L32:W32"/>
-    <mergeCell ref="AA23:AG23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="BM45:BN45"/>
+    <mergeCell ref="AY31:BK31"/>
+    <mergeCell ref="AY32:BK32"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="BZ50:CF50"/>
+    <mergeCell ref="BM42:CF42"/>
+    <mergeCell ref="BC18:BG19"/>
+    <mergeCell ref="BC20:BG21"/>
+    <mergeCell ref="BI18:BI19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="BM43:BN43"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AO18:AS19"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AS21"/>
+    <mergeCell ref="AA18:AE19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AL19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AU20:AU21"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="AA20:AE21"/>
+    <mergeCell ref="BQ18:BU19"/>
+    <mergeCell ref="BJ18:BN19"/>
+    <mergeCell ref="BJ20:BN21"/>
+    <mergeCell ref="BX18:CA19"/>
+    <mergeCell ref="BX20:CA21"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AV11:AZ11"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="BC11:BF11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="BX10:CB10"/>
+    <mergeCell ref="BX11:CB11"/>
+    <mergeCell ref="BX15:CB15"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="AV18:AZ19"/>
+    <mergeCell ref="AV20:AZ21"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="AH20:AL21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="55" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="56" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;6&amp;K000000 </oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;6&amp;K000000 </oddFooter>
@@ -17015,7 +17081,7 @@
   <ignoredErrors>
     <ignoredError sqref="BZ28" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
